--- a/client/doc/特效名替换备注.xlsx
+++ b/client/doc/特效名替换备注.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="311">
   <si>
     <t>原先变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1050,6 +1050,10 @@
   </si>
   <si>
     <t>playMusic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccbTenLotteryTip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1975,10 +1979,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3158,10 +3162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D177"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="G158" sqref="G158"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -3185,7 +3189,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>255</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3199,8 +3203,8 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3211,8 +3215,8 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2" t="s">
         <v>97</v>
       </c>
@@ -3221,14 +3225,14 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3239,8 +3243,8 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="2" t="s">
         <v>75</v>
       </c>
@@ -3249,8 +3253,8 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -3259,8 +3263,8 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3271,8 +3275,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2" t="s">
         <v>79</v>
       </c>
@@ -3281,8 +3285,8 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3293,8 +3297,8 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
         <v>83</v>
       </c>
@@ -3303,8 +3307,8 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="2" t="s">
         <v>85</v>
       </c>
@@ -3313,1472 +3317,1467 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="2" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="2" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="2" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="2" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4"/>
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4"/>
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4"/>
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4"/>
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="2" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="4"/>
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="5"/>
+      <c r="B31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="4"/>
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="5"/>
+      <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="4"/>
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="4"/>
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="5"/>
+      <c r="B34" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="4"/>
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="5"/>
+      <c r="B35" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="4"/>
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="4"/>
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" s="5"/>
+      <c r="B37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="4"/>
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="5"/>
+      <c r="B38" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="4"/>
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" s="5"/>
+      <c r="B39" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="2" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="2" t="s">
+    <row r="42" spans="1:4">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="4"/>
-      <c r="B42" s="1" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" s="5"/>
+      <c r="B43" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="4"/>
-      <c r="B43" s="1" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" s="5"/>
+      <c r="B44" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="4"/>
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" s="5"/>
+      <c r="B45" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="4"/>
-      <c r="B45" s="1" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="5"/>
+      <c r="B46" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="2" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="4"/>
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="5"/>
+      <c r="B49" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="4"/>
-      <c r="B49" s="1" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" s="5"/>
+      <c r="B50" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="4"/>
-      <c r="B50" s="1" t="s">
+    <row r="51" spans="1:4">
+      <c r="A51" s="5"/>
+      <c r="B51" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="4"/>
-      <c r="B51" s="1" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="5"/>
+      <c r="B52" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="7" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="5"/>
+      <c r="B53" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="4"/>
+      <c r="A54" s="5"/>
       <c r="B54" s="7"/>
       <c r="C54" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="4"/>
+      <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="4"/>
+      <c r="A56" s="5"/>
       <c r="B56" s="7"/>
       <c r="C56" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="4"/>
+      <c r="A57" s="5"/>
       <c r="B57" s="7"/>
       <c r="C57" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="4"/>
+      <c r="A58" s="5"/>
       <c r="B58" s="7"/>
       <c r="C58" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="5"/>
       <c r="B59" s="7"/>
       <c r="C59" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="4"/>
+      <c r="A60" s="5"/>
       <c r="B60" s="7"/>
       <c r="C60" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="5"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="4"/>
-      <c r="B61" s="1" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="5"/>
+      <c r="B62" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="2" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="2" t="s">
+    <row r="65" spans="1:4">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="2" t="s">
+    <row r="66" spans="1:4">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="2" t="s">
+    <row r="67" spans="1:4">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="2" t="s">
+    <row r="69" spans="1:4">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="2" t="s">
+    <row r="70" spans="1:4">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="2" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="2" t="s">
+    <row r="73" spans="1:4">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="4"/>
-      <c r="B73" s="1" t="s">
+    <row r="74" spans="1:4">
+      <c r="A74" s="5"/>
+      <c r="B74" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="4"/>
-      <c r="B74" s="1" t="s">
+    <row r="75" spans="1:4">
+      <c r="A75" s="5"/>
+      <c r="B75" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="4"/>
-      <c r="B75" s="1" t="s">
+    <row r="76" spans="1:4">
+      <c r="A76" s="5"/>
+      <c r="B76" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4" t="s">
+    <row r="77" spans="1:4">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="2" t="s">
+    <row r="78" spans="1:4">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="2" t="s">
+    <row r="79" spans="1:4">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="2" t="s">
+    <row r="80" spans="1:4">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="2" t="s">
+    <row r="81" spans="1:4">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="4"/>
-      <c r="B81" s="1" t="s">
+    <row r="82" spans="1:4">
+      <c r="A82" s="5"/>
+      <c r="B82" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="4"/>
-      <c r="B82" s="1" t="s">
+    <row r="83" spans="1:4">
+      <c r="A83" s="5"/>
+      <c r="B83" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4" t="s">
+    <row r="84" spans="1:4">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="2" t="s">
+    <row r="85" spans="1:4">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="4"/>
-      <c r="B85" s="1" t="s">
+    <row r="86" spans="1:4">
+      <c r="A86" s="5"/>
+      <c r="B86" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="4"/>
-      <c r="B86" s="1" t="s">
+    <row r="87" spans="1:4">
+      <c r="A87" s="5"/>
+      <c r="B87" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="4"/>
-      <c r="B87" s="1" t="s">
+    <row r="88" spans="1:4">
+      <c r="A88" s="5"/>
+      <c r="B88" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="4"/>
-      <c r="B88" s="1" t="s">
+    <row r="89" spans="1:4">
+      <c r="A89" s="5"/>
+      <c r="B89" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="4"/>
-      <c r="B89" s="1" t="s">
+    <row r="90" spans="1:4">
+      <c r="A90" s="5"/>
+      <c r="B90" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="4"/>
-      <c r="B90" s="1" t="s">
+    <row r="91" spans="1:4">
+      <c r="A91" s="5"/>
+      <c r="B91" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="4"/>
-      <c r="B91" s="1" t="s">
+    <row r="92" spans="1:4">
+      <c r="A92" s="5"/>
+      <c r="B92" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="4"/>
-      <c r="C92" s="2" t="s">
+    <row r="93" spans="1:4">
+      <c r="A93" s="5"/>
+      <c r="C93" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="4"/>
-      <c r="C93" s="2" t="s">
+    <row r="94" spans="1:4">
+      <c r="A94" s="5"/>
+      <c r="C94" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="4"/>
-      <c r="C94" s="2" t="s">
+    <row r="95" spans="1:4">
+      <c r="A95" s="5"/>
+      <c r="C95" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="4"/>
-      <c r="B95" s="1" t="s">
+    <row r="96" spans="1:4">
+      <c r="A96" s="5"/>
+      <c r="B96" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="4"/>
-      <c r="B96" s="1" t="s">
+    <row r="97" spans="1:4">
+      <c r="A97" s="5"/>
+      <c r="B97" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="4"/>
-      <c r="B97" s="1" t="s">
+    <row r="98" spans="1:4">
+      <c r="A98" s="5"/>
+      <c r="B98" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4" t="s">
+    <row r="99" spans="1:4">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="2" t="s">
+    <row r="100" spans="1:4">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="2" t="s">
+    <row r="101" spans="1:4">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="2" t="s">
+    <row r="102" spans="1:4">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="2" t="s">
+    <row r="103" spans="1:4">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="4"/>
-      <c r="B103" s="1" t="s">
+    <row r="104" spans="1:4">
+      <c r="A104" s="5"/>
+      <c r="B104" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="4"/>
-      <c r="B104" s="1" t="s">
+    <row r="105" spans="1:4">
+      <c r="A105" s="5"/>
+      <c r="B105" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="4"/>
-      <c r="B105" s="1" t="s">
+    <row r="106" spans="1:4">
+      <c r="A106" s="5"/>
+      <c r="B106" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="4"/>
-      <c r="B106" s="1" t="s">
+    <row r="107" spans="1:4">
+      <c r="A107" s="5"/>
+      <c r="B107" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4" t="s">
+    <row r="108" spans="1:4">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="2" t="s">
+    <row r="109" spans="1:4">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="2" t="s">
+    <row r="110" spans="1:4">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="2" t="s">
+    <row r="111" spans="1:4">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="2" t="s">
+    <row r="112" spans="1:4">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="2" t="s">
+    <row r="113" spans="1:4">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="2" t="s">
+    <row r="114" spans="1:4">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="2" t="s">
+    <row r="115" spans="1:4">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="2" t="s">
+    <row r="116" spans="1:4">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="2" t="s">
+    <row r="117" spans="1:4">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="2" t="s">
+    <row r="118" spans="1:4">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="2" t="s">
+    <row r="119" spans="1:4">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="2" t="s">
+    <row r="120" spans="1:4">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="2" t="s">
+    <row r="121" spans="1:4">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="2" t="s">
+    <row r="122" spans="1:4">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="2" t="s">
+    <row r="123" spans="1:4">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="2" t="s">
+    <row r="124" spans="1:4">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="2" t="s">
+    <row r="125" spans="1:4">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="2" t="s">
+    <row r="126" spans="1:4">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D126" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="2" t="s">
+    <row r="127" spans="1:4">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D127" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="2" t="s">
+    <row r="128" spans="1:4">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D128" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="2" t="s">
+    <row r="129" spans="1:4">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="2" t="s">
+    <row r="130" spans="1:4">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D130" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="2" t="s">
+    <row r="131" spans="1:4">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D131" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="2" t="s">
+    <row r="132" spans="1:4">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D132" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="2" t="s">
+    <row r="133" spans="1:4">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="2" t="s">
+    <row r="134" spans="1:4">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="2" t="s">
+    <row r="135" spans="1:4">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="2" t="s">
+    <row r="136" spans="1:4">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D136" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="2" t="s">
+    <row r="137" spans="1:4">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D137" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="2" t="s">
+    <row r="138" spans="1:4">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D138" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="4"/>
-      <c r="B138" s="3" t="s">
+    <row r="139" spans="1:4">
+      <c r="A139" s="5"/>
+      <c r="B139" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C139" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D139" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="4"/>
-      <c r="B139" s="5" t="s">
+    <row r="140" spans="1:4">
+      <c r="A140" s="5"/>
+      <c r="B140" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C140" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D140" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="4"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="2" t="s">
+    <row r="141" spans="1:4">
+      <c r="A141" s="5"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D141" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="4"/>
-      <c r="B141" s="3" t="s">
+    <row r="142" spans="1:4">
+      <c r="A142" s="5"/>
+      <c r="B142" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="B142" s="5" t="s">
+    <row r="143" spans="1:4">
+      <c r="B143" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D143" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="B143" s="5"/>
-      <c r="D143" s="2" t="s">
+    <row r="144" spans="1:4">
+      <c r="B144" s="4"/>
+      <c r="D144" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="B144" s="5"/>
-      <c r="D144" s="2" t="s">
+    <row r="145" spans="1:4">
+      <c r="B145" s="4"/>
+      <c r="D145" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
-      <c r="B145" s="5"/>
-      <c r="D145" s="2" t="s">
+    <row r="146" spans="1:4">
+      <c r="B146" s="4"/>
+      <c r="D146" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="B146" s="5"/>
-      <c r="D146" s="2" t="s">
+    <row r="147" spans="1:4">
+      <c r="B147" s="4"/>
+      <c r="D147" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="4" t="s">
+    <row r="149" spans="1:4">
+      <c r="A149" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B149" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C149" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D149" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="2" t="s">
+    <row r="150" spans="1:4">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D150" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="2" t="s">
+    <row r="151" spans="1:4">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D151" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="2" t="s">
+    <row r="152" spans="1:4">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D152" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="2" t="s">
+    <row r="153" spans="1:4">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4" t="s">
+    <row r="154" spans="1:4">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C154" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D154" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="2" t="s">
+    <row r="155" spans="1:4">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D155" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="2" t="s">
+    <row r="156" spans="1:4">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D156" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="2" t="s">
+    <row r="157" spans="1:4">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D157" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="2" t="s">
+    <row r="158" spans="1:4">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D158" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4" t="s">
+    <row r="159" spans="1:4">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C159" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D159" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="2" t="s">
+    <row r="160" spans="1:4">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D160" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="2" t="s">
+    <row r="161" spans="1:4">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D161" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="2" t="s">
+    <row r="162" spans="1:4">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D162" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="2" t="s">
+    <row r="163" spans="1:4">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D163" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="4"/>
-      <c r="B163" s="1" t="s">
+    <row r="164" spans="1:4">
+      <c r="A164" s="5"/>
+      <c r="B164" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C164" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="4"/>
-      <c r="B164" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4" t="s">
+      <c r="A165" s="5"/>
+      <c r="B165" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C166" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D166" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="2" t="s">
+    <row r="167" spans="1:4">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D167" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
-      <c r="C167" s="2" t="s">
+    <row r="168" spans="1:4">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D168" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
-      <c r="C168" s="2" t="s">
+    <row r="169" spans="1:4">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D169" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="4"/>
-      <c r="B169" s="1" t="s">
+    <row r="170" spans="1:4">
+      <c r="A170" s="5"/>
+      <c r="B170" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C170" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D170" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="4" t="s">
+    <row r="173" spans="1:4">
+      <c r="A173" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B173" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C173" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D173" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="2" t="s">
+    <row r="174" spans="1:4">
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="6"/>
-      <c r="B174" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="6"/>
       <c r="B175" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>295</v>
@@ -4790,7 +4789,7 @@
     <row r="176" spans="1:4">
       <c r="A176" s="6"/>
       <c r="B176" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>295</v>
@@ -4802,7 +4801,7 @@
     <row r="177" spans="1:4">
       <c r="A177" s="6"/>
       <c r="B177" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>295</v>
@@ -4811,34 +4810,46 @@
         <v>296</v>
       </c>
     </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="6"/>
+      <c r="B178" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B142:B146"/>
-    <mergeCell ref="A172:A177"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B52:B60"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A2:A141"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="B153:B157"/>
-    <mergeCell ref="B158:B162"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="A148:A169"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="B172:B173"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="B107:B137"/>
-    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="B108:B138"/>
+    <mergeCell ref="B140:B141"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="A173:A178"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A2:A142"/>
+    <mergeCell ref="B149:B153"/>
+    <mergeCell ref="B154:B158"/>
+    <mergeCell ref="B159:B163"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="A149:A170"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B173:B174"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/client/doc/特效名替换备注.xlsx
+++ b/client/doc/特效名替换备注.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="1180" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="11280" yWindow="1320" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="319">
   <si>
     <t>原先变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1055,6 +1055,35 @@
   <si>
     <t>ccbTenLotteryTip</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiEffect84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccbFnExtract</t>
+  </si>
+  <si>
+    <t>uiEffect85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiEffect86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccbSpirit</t>
+  </si>
+  <si>
+    <t>uiEffect87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccbExpLabel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccbMoneyLabel</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1156,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="841">
+  <cellStyleXfs count="851">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1969,8 +1998,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1985,6 +2024,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1992,7 +2034,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="841">
+  <cellStyles count="851">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2413,6 +2455,11 @@
     <cellStyle name="超链接" xfId="835" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="837" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="849" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2833,6 +2880,11 @@
     <cellStyle name="访问过的超链接" xfId="836" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="838" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="850" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3162,10 +3214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -3621,7 +3673,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="5"/>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -3633,7 +3685,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="5"/>
-      <c r="B54" s="7"/>
+      <c r="B54" s="8"/>
       <c r="C54" s="2" t="s">
         <v>116</v>
       </c>
@@ -3643,7 +3695,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="5"/>
-      <c r="B55" s="7"/>
+      <c r="B55" s="8"/>
       <c r="C55" s="2" t="s">
         <v>118</v>
       </c>
@@ -3653,7 +3705,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="5"/>
-      <c r="B56" s="7"/>
+      <c r="B56" s="8"/>
       <c r="C56" s="2" t="s">
         <v>120</v>
       </c>
@@ -3663,7 +3715,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="5"/>
-      <c r="B57" s="7"/>
+      <c r="B57" s="8"/>
       <c r="C57" s="2" t="s">
         <v>122</v>
       </c>
@@ -3673,7 +3725,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="5"/>
-      <c r="B58" s="7"/>
+      <c r="B58" s="8"/>
       <c r="C58" s="2" t="s">
         <v>124</v>
       </c>
@@ -3683,7 +3735,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="5"/>
-      <c r="B59" s="7"/>
+      <c r="B59" s="8"/>
       <c r="C59" s="2" t="s">
         <v>126</v>
       </c>
@@ -3693,7 +3745,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="5"/>
-      <c r="B60" s="7"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="2" t="s">
         <v>128</v>
       </c>
@@ -3703,7 +3755,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="5"/>
-      <c r="B61" s="7"/>
+      <c r="B61" s="8"/>
       <c r="C61" s="2" t="s">
         <v>130</v>
       </c>
@@ -4456,7 +4508,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="5"/>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C140" s="2" t="s">
@@ -4468,7 +4520,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="5"/>
-      <c r="B141" s="4"/>
+      <c r="B141" s="6"/>
       <c r="C141" s="2" t="s">
         <v>252</v>
       </c>
@@ -4483,7 +4535,7 @@
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="6" t="s">
         <v>302</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -4491,139 +4543,127 @@
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="B144" s="4"/>
+      <c r="B144" s="6"/>
       <c r="D144" s="2" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="B145" s="4"/>
+      <c r="B145" s="6"/>
       <c r="D145" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="B146" s="4"/>
+      <c r="B146" s="6"/>
       <c r="D146" s="2" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="B147" s="4"/>
+      <c r="B147" s="6"/>
       <c r="D147" s="2" t="s">
         <v>307</v>
       </c>
     </row>
+    <row r="148" spans="1:4">
+      <c r="B148" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="5" t="s">
+      <c r="B149" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="B150" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="B151" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="B152" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B154" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C154" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D154" s="2" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="2" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="2" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="2" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="5"/>
       <c r="B159" s="5" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>268</v>
@@ -4674,146 +4714,140 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="5"/>
-      <c r="B164" s="1" t="s">
-        <v>281</v>
+      <c r="B164" s="5" t="s">
+        <v>278</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="5"/>
-      <c r="B165" s="1" t="s">
-        <v>282</v>
-      </c>
+      <c r="B165" s="5"/>
       <c r="C165" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="5"/>
-      <c r="B166" s="5" t="s">
-        <v>283</v>
-      </c>
+      <c r="B166" s="5"/>
       <c r="C166" s="2" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="2" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="2" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="5"/>
-      <c r="B169" s="5"/>
+      <c r="B169" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="C169" s="2" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="5"/>
       <c r="B170" s="1" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>99</v>
+        <v>279</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>100</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>290</v>
-      </c>
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
       <c r="C173" s="2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="2" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="6"/>
+      <c r="A175" s="5"/>
       <c r="B175" s="1" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>295</v>
+        <v>99</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="6"/>
-      <c r="B176" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="6"/>
-      <c r="B177" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>296</v>
+        <v>100</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="6"/>
-      <c r="B178" s="1" t="s">
-        <v>294</v>
+      <c r="A178" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>295</v>
@@ -4822,8 +4856,82 @@
         <v>296</v>
       </c>
     </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="7"/>
+      <c r="B180" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="7"/>
+      <c r="B181" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="7"/>
+      <c r="B182" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="7"/>
+      <c r="B183" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="A178:A183"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A2:A142"/>
+    <mergeCell ref="B154:B158"/>
+    <mergeCell ref="B159:B163"/>
+    <mergeCell ref="B164:B168"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="A154:A175"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B178:B179"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B84:B85"/>
     <mergeCell ref="B99:B103"/>
@@ -4834,22 +4942,6 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B143:B147"/>
-    <mergeCell ref="A173:A178"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B53:B61"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A2:A142"/>
-    <mergeCell ref="B149:B153"/>
-    <mergeCell ref="B154:B158"/>
-    <mergeCell ref="B159:B163"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="A149:A170"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B173:B174"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/client/doc/特效名替换备注.xlsx
+++ b/client/doc/特效名替换备注.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="320">
   <si>
     <t>原先变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1072,9 +1072,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ccbSpirit</t>
-  </si>
-  <si>
     <t>uiEffect87</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1084,6 +1081,14 @@
   </si>
   <si>
     <t>ccbMoneyLabel</t>
+  </si>
+  <si>
+    <t>ccbSpiritLabel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccbFnExtract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1156,7 +1161,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="851">
+  <cellStyleXfs count="859">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2008,8 +2013,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2021,10 +2034,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2033,8 +2046,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="851">
+  <cellStyles count="859">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2460,6 +2474,10 @@
     <cellStyle name="超链接" xfId="845" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="847" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="857" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2885,6 +2903,10 @@
     <cellStyle name="访问过的超链接" xfId="846" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="848" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="858" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3216,8 +3238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -3241,7 +3263,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>255</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3255,8 +3277,8 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3267,8 +3289,8 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="2" t="s">
         <v>97</v>
       </c>
@@ -3277,14 +3299,14 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3295,8 +3317,8 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="2" t="s">
         <v>75</v>
       </c>
@@ -3305,8 +3327,8 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -3315,8 +3337,8 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3327,8 +3349,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
         <v>79</v>
       </c>
@@ -3337,8 +3359,8 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3349,8 +3371,8 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="2" t="s">
         <v>83</v>
       </c>
@@ -3359,8 +3381,8 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="2" t="s">
         <v>85</v>
       </c>
@@ -3369,15 +3391,15 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="D14" s="2" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3388,8 +3410,8 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="2" t="s">
         <v>88</v>
       </c>
@@ -3398,8 +3420,8 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="2" t="s">
         <v>89</v>
       </c>
@@ -3408,8 +3430,8 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="2" t="s">
         <v>93</v>
       </c>
@@ -3418,8 +3440,8 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="2" t="s">
         <v>95</v>
       </c>
@@ -3428,62 +3450,62 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="5"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="5"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="5"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="5"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="5"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="5"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="5"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="5"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="5"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -3494,8 +3516,8 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="2" t="s">
         <v>101</v>
       </c>
@@ -3504,7 +3526,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="5"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="1" t="s">
         <v>22</v>
       </c>
@@ -3516,37 +3538,37 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="5"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="5"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="5"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="5"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="5"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="5"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
         <v>28</v>
       </c>
@@ -3558,20 +3580,20 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="5"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="5"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5" t="s">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -3582,8 +3604,8 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="2" t="s">
         <v>109</v>
       </c>
@@ -3592,8 +3614,8 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
       <c r="C42" s="2" t="s">
         <v>110</v>
       </c>
@@ -3602,32 +3624,32 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="5"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="5"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="5"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="5"/>
+      <c r="A46" s="6"/>
       <c r="B46" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5" t="s">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -3638,8 +3660,8 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
       <c r="C48" s="2" t="s">
         <v>99</v>
       </c>
@@ -3648,31 +3670,31 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="5"/>
+      <c r="A49" s="6"/>
       <c r="B49" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="5"/>
+      <c r="A50" s="6"/>
       <c r="B50" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="5"/>
+      <c r="A51" s="6"/>
       <c r="B51" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="5"/>
+      <c r="A52" s="6"/>
       <c r="B52" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="5"/>
+      <c r="A53" s="6"/>
       <c r="B53" s="8" t="s">
         <v>41</v>
       </c>
@@ -3684,7 +3706,7 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="5"/>
+      <c r="A54" s="6"/>
       <c r="B54" s="8"/>
       <c r="C54" s="2" t="s">
         <v>116</v>
@@ -3694,7 +3716,7 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="5"/>
+      <c r="A55" s="6"/>
       <c r="B55" s="8"/>
       <c r="C55" s="2" t="s">
         <v>118</v>
@@ -3704,7 +3726,7 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="5"/>
+      <c r="A56" s="6"/>
       <c r="B56" s="8"/>
       <c r="C56" s="2" t="s">
         <v>120</v>
@@ -3714,7 +3736,7 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="5"/>
+      <c r="A57" s="6"/>
       <c r="B57" s="8"/>
       <c r="C57" s="2" t="s">
         <v>122</v>
@@ -3724,7 +3746,7 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="5"/>
+      <c r="A58" s="6"/>
       <c r="B58" s="8"/>
       <c r="C58" s="2" t="s">
         <v>124</v>
@@ -3734,7 +3756,7 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="5"/>
+      <c r="A59" s="6"/>
       <c r="B59" s="8"/>
       <c r="C59" s="2" t="s">
         <v>126</v>
@@ -3744,7 +3766,7 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="5"/>
+      <c r="A60" s="6"/>
       <c r="B60" s="8"/>
       <c r="C60" s="2" t="s">
         <v>128</v>
@@ -3754,7 +3776,7 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="5"/>
+      <c r="A61" s="6"/>
       <c r="B61" s="8"/>
       <c r="C61" s="2" t="s">
         <v>130</v>
@@ -3764,7 +3786,7 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="5"/>
+      <c r="A62" s="6"/>
       <c r="B62" s="1" t="s">
         <v>42</v>
       </c>
@@ -3776,8 +3798,8 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5" t="s">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -3788,8 +3810,8 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
       <c r="C64" s="2" t="s">
         <v>134</v>
       </c>
@@ -3798,8 +3820,8 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
       <c r="C65" s="2" t="s">
         <v>124</v>
       </c>
@@ -3808,8 +3830,8 @@
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
       <c r="C66" s="2" t="s">
         <v>128</v>
       </c>
@@ -3818,8 +3840,8 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
       <c r="C67" s="2" t="s">
         <v>136</v>
       </c>
@@ -3828,8 +3850,8 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5" t="s">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -3840,8 +3862,8 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
       <c r="C69" s="2" t="s">
         <v>141</v>
       </c>
@@ -3850,8 +3872,8 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
       <c r="C70" s="2" t="s">
         <v>143</v>
       </c>
@@ -3860,8 +3882,8 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
       <c r="C71" s="2" t="s">
         <v>145</v>
       </c>
@@ -3870,8 +3892,8 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5" t="s">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -3882,8 +3904,8 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
       <c r="C73" s="2" t="s">
         <v>149</v>
       </c>
@@ -3892,26 +3914,26 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="5"/>
+      <c r="A74" s="6"/>
       <c r="B74" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="5"/>
+      <c r="A75" s="6"/>
       <c r="B75" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="5"/>
+      <c r="A76" s="6"/>
       <c r="B76" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5" t="s">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -3922,8 +3944,8 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
       <c r="C78" s="2" t="s">
         <v>153</v>
       </c>
@@ -3932,8 +3954,8 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
       <c r="C79" s="2" t="s">
         <v>155</v>
       </c>
@@ -3942,8 +3964,8 @@
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
       <c r="C80" s="2" t="s">
         <v>95</v>
       </c>
@@ -3952,8 +3974,8 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
       <c r="C81" s="2" t="s">
         <v>157</v>
       </c>
@@ -3962,13 +3984,13 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="5"/>
+      <c r="A82" s="6"/>
       <c r="B82" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="5"/>
+      <c r="A83" s="6"/>
       <c r="B83" s="1" t="s">
         <v>51</v>
       </c>
@@ -3980,8 +4002,8 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5" t="s">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -3992,8 +4014,8 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
       <c r="C85" s="2" t="s">
         <v>164</v>
       </c>
@@ -4002,43 +4024,43 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="5"/>
+      <c r="A86" s="6"/>
       <c r="B86" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="5"/>
+      <c r="A87" s="6"/>
       <c r="B87" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="5"/>
+      <c r="A88" s="6"/>
       <c r="B88" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="5"/>
+      <c r="A89" s="6"/>
       <c r="B89" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="5"/>
+      <c r="A90" s="6"/>
       <c r="B90" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="5"/>
+      <c r="A91" s="6"/>
       <c r="B91" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="5"/>
+      <c r="A92" s="6"/>
       <c r="B92" s="1" t="s">
         <v>59</v>
       </c>
@@ -4050,7 +4072,7 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="5"/>
+      <c r="A93" s="6"/>
       <c r="C93" s="2" t="s">
         <v>168</v>
       </c>
@@ -4059,7 +4081,7 @@
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="5"/>
+      <c r="A94" s="6"/>
       <c r="C94" s="2" t="s">
         <v>170</v>
       </c>
@@ -4068,7 +4090,7 @@
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="5"/>
+      <c r="A95" s="6"/>
       <c r="C95" s="2" t="s">
         <v>172</v>
       </c>
@@ -4077,13 +4099,13 @@
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="5"/>
+      <c r="A96" s="6"/>
       <c r="B96" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="5"/>
+      <c r="A97" s="6"/>
       <c r="B97" s="1" t="s">
         <v>61</v>
       </c>
@@ -4095,7 +4117,7 @@
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="5"/>
+      <c r="A98" s="6"/>
       <c r="B98" s="1" t="s">
         <v>62</v>
       </c>
@@ -4107,8 +4129,8 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5" t="s">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -4119,8 +4141,8 @@
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
       <c r="C100" s="2" t="s">
         <v>178</v>
       </c>
@@ -4129,8 +4151,8 @@
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
       <c r="C101" s="2" t="s">
         <v>179</v>
       </c>
@@ -4139,8 +4161,8 @@
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
       <c r="C102" s="2" t="s">
         <v>181</v>
       </c>
@@ -4149,8 +4171,8 @@
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
       <c r="C103" s="2" t="s">
         <v>183</v>
       </c>
@@ -4159,32 +4181,32 @@
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="5"/>
+      <c r="A104" s="6"/>
       <c r="B104" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="5"/>
+      <c r="A105" s="6"/>
       <c r="B105" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="5"/>
+      <c r="A106" s="6"/>
       <c r="B106" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="5"/>
+      <c r="A107" s="6"/>
       <c r="B107" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5" t="s">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -4195,8 +4217,8 @@
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
       <c r="C109" s="2" t="s">
         <v>188</v>
       </c>
@@ -4205,8 +4227,8 @@
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
       <c r="C110" s="2" t="s">
         <v>190</v>
       </c>
@@ -4215,8 +4237,8 @@
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
       <c r="C111" s="2" t="s">
         <v>191</v>
       </c>
@@ -4225,8 +4247,8 @@
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
       <c r="C112" s="2" t="s">
         <v>192</v>
       </c>
@@ -4235,8 +4257,8 @@
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
       <c r="C113" s="2" t="s">
         <v>193</v>
       </c>
@@ -4245,8 +4267,8 @@
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
       <c r="C114" s="2" t="s">
         <v>194</v>
       </c>
@@ -4255,8 +4277,8 @@
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
       <c r="C115" s="2" t="s">
         <v>195</v>
       </c>
@@ -4265,8 +4287,8 @@
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
       <c r="C116" s="2" t="s">
         <v>196</v>
       </c>
@@ -4275,8 +4297,8 @@
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
       <c r="C117" s="2" t="s">
         <v>197</v>
       </c>
@@ -4285,8 +4307,8 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
       <c r="C118" s="2" t="s">
         <v>198</v>
       </c>
@@ -4295,8 +4317,8 @@
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
       <c r="C119" s="2" t="s">
         <v>208</v>
       </c>
@@ -4305,8 +4327,8 @@
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
       <c r="C120" s="2" t="s">
         <v>209</v>
       </c>
@@ -4315,8 +4337,8 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
       <c r="C121" s="2" t="s">
         <v>210</v>
       </c>
@@ -4325,8 +4347,8 @@
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
       <c r="C122" s="2" t="s">
         <v>211</v>
       </c>
@@ -4335,8 +4357,8 @@
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
       <c r="C123" s="2" t="s">
         <v>212</v>
       </c>
@@ -4345,8 +4367,8 @@
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
       <c r="C124" s="2" t="s">
         <v>213</v>
       </c>
@@ -4355,8 +4377,8 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
       <c r="C125" s="2" t="s">
         <v>214</v>
       </c>
@@ -4365,8 +4387,8 @@
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
       <c r="C126" s="2" t="s">
         <v>215</v>
       </c>
@@ -4375,8 +4397,8 @@
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
       <c r="C127" s="2" t="s">
         <v>216</v>
       </c>
@@ -4385,8 +4407,8 @@
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
       <c r="C128" s="2" t="s">
         <v>217</v>
       </c>
@@ -4395,8 +4417,8 @@
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
       <c r="C129" s="2" t="s">
         <v>228</v>
       </c>
@@ -4405,8 +4427,8 @@
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
       <c r="C130" s="2" t="s">
         <v>229</v>
       </c>
@@ -4415,8 +4437,8 @@
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
       <c r="C131" s="2" t="s">
         <v>230</v>
       </c>
@@ -4425,8 +4447,8 @@
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
       <c r="C132" s="2" t="s">
         <v>231</v>
       </c>
@@ -4435,8 +4457,8 @@
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
       <c r="C133" s="2" t="s">
         <v>232</v>
       </c>
@@ -4445,8 +4467,8 @@
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
       <c r="C134" s="2" t="s">
         <v>233</v>
       </c>
@@ -4455,8 +4477,8 @@
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
       <c r="C135" s="2" t="s">
         <v>234</v>
       </c>
@@ -4465,8 +4487,8 @@
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
       <c r="C136" s="2" t="s">
         <v>235</v>
       </c>
@@ -4475,8 +4497,8 @@
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
       <c r="C137" s="2" t="s">
         <v>236</v>
       </c>
@@ -4485,8 +4507,8 @@
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
       <c r="C138" s="2" t="s">
         <v>237</v>
       </c>
@@ -4495,7 +4517,7 @@
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="5"/>
+      <c r="A139" s="6"/>
       <c r="B139" s="3" t="s">
         <v>69</v>
       </c>
@@ -4507,8 +4529,8 @@
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="5"/>
-      <c r="B140" s="6" t="s">
+      <c r="A140" s="6"/>
+      <c r="B140" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C140" s="2" t="s">
@@ -4519,8 +4541,8 @@
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="5"/>
-      <c r="B141" s="6"/>
+      <c r="A141" s="6"/>
+      <c r="B141" s="5"/>
       <c r="C141" s="2" t="s">
         <v>252</v>
       </c>
@@ -4529,13 +4551,14 @@
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="5"/>
+      <c r="A142" s="6"/>
       <c r="B142" s="3" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="B143" s="6" t="s">
+      <c r="A143" s="9"/>
+      <c r="B143" s="5" t="s">
         <v>302</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -4543,38 +4566,44 @@
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="B144" s="6"/>
+      <c r="A144" s="9"/>
+      <c r="B144" s="5"/>
       <c r="D144" s="2" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="B145" s="6"/>
+      <c r="A145" s="9"/>
+      <c r="B145" s="5"/>
       <c r="D145" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="B146" s="6"/>
+      <c r="A146" s="9"/>
+      <c r="B146" s="5"/>
       <c r="D146" s="2" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="B147" s="6"/>
+      <c r="A147" s="9"/>
+      <c r="B147" s="5"/>
       <c r="D147" s="2" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="148" spans="1:4">
+      <c r="A148" s="9"/>
       <c r="B148" s="4" t="s">
         <v>311</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="149" spans="1:4">
+      <c r="A149" s="9"/>
       <c r="B149" s="4" t="s">
         <v>313</v>
       </c>
@@ -4583,34 +4612,37 @@
       </c>
     </row>
     <row r="150" spans="1:4">
+      <c r="A150" s="9"/>
       <c r="B150" s="4" t="s">
         <v>314</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="9"/>
+      <c r="B151" s="4" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="B151" s="4" t="s">
+      <c r="D151" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="9"/>
+      <c r="B152" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D151" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="B152" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>317</v>
-      </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="6" t="s">
         <v>257</v>
       </c>
       <c r="C154" s="2" t="s">
@@ -4621,8 +4653,8 @@
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="5"/>
-      <c r="B155" s="5"/>
+      <c r="A155" s="6"/>
+      <c r="B155" s="6"/>
       <c r="C155" s="2" t="s">
         <v>259</v>
       </c>
@@ -4631,8 +4663,8 @@
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
       <c r="C156" s="2" t="s">
         <v>261</v>
       </c>
@@ -4641,8 +4673,8 @@
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
+      <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
       <c r="C157" s="2" t="s">
         <v>263</v>
       </c>
@@ -4651,8 +4683,8 @@
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
+      <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
       <c r="C158" s="2" t="s">
         <v>265</v>
       </c>
@@ -4661,8 +4693,8 @@
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5" t="s">
+      <c r="A159" s="6"/>
+      <c r="B159" s="6" t="s">
         <v>267</v>
       </c>
       <c r="C159" s="2" t="s">
@@ -4673,8 +4705,8 @@
       </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="5"/>
-      <c r="B160" s="5"/>
+      <c r="A160" s="6"/>
+      <c r="B160" s="6"/>
       <c r="C160" s="2" t="s">
         <v>270</v>
       </c>
@@ -4683,8 +4715,8 @@
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="5"/>
-      <c r="B161" s="5"/>
+      <c r="A161" s="6"/>
+      <c r="B161" s="6"/>
       <c r="C161" s="2" t="s">
         <v>272</v>
       </c>
@@ -4693,8 +4725,8 @@
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="5"/>
-      <c r="B162" s="5"/>
+      <c r="A162" s="6"/>
+      <c r="B162" s="6"/>
       <c r="C162" s="2" t="s">
         <v>274</v>
       </c>
@@ -4703,8 +4735,8 @@
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="5"/>
-      <c r="B163" s="5"/>
+      <c r="A163" s="6"/>
+      <c r="B163" s="6"/>
       <c r="C163" s="2" t="s">
         <v>275</v>
       </c>
@@ -4713,8 +4745,8 @@
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="5"/>
-      <c r="B164" s="5" t="s">
+      <c r="A164" s="6"/>
+      <c r="B164" s="6" t="s">
         <v>278</v>
       </c>
       <c r="C164" s="2" t="s">
@@ -4725,8 +4757,8 @@
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="5"/>
-      <c r="B165" s="5"/>
+      <c r="A165" s="6"/>
+      <c r="B165" s="6"/>
       <c r="C165" s="2" t="s">
         <v>270</v>
       </c>
@@ -4735,8 +4767,8 @@
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="5"/>
-      <c r="B166" s="5"/>
+      <c r="A166" s="6"/>
+      <c r="B166" s="6"/>
       <c r="C166" s="2" t="s">
         <v>272</v>
       </c>
@@ -4745,8 +4777,8 @@
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="5"/>
-      <c r="B167" s="5"/>
+      <c r="A167" s="6"/>
+      <c r="B167" s="6"/>
       <c r="C167" s="2" t="s">
         <v>274</v>
       </c>
@@ -4755,8 +4787,8 @@
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
+      <c r="A168" s="6"/>
+      <c r="B168" s="6"/>
       <c r="C168" s="2" t="s">
         <v>275</v>
       </c>
@@ -4765,7 +4797,7 @@
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="5"/>
+      <c r="A169" s="6"/>
       <c r="B169" s="1" t="s">
         <v>281</v>
       </c>
@@ -4777,7 +4809,7 @@
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="5"/>
+      <c r="A170" s="6"/>
       <c r="B170" s="1" t="s">
         <v>282</v>
       </c>
@@ -4789,8 +4821,8 @@
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="5"/>
-      <c r="B171" s="5" t="s">
+      <c r="A171" s="6"/>
+      <c r="B171" s="6" t="s">
         <v>283</v>
       </c>
       <c r="C171" s="2" t="s">
@@ -4801,8 +4833,8 @@
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="5"/>
-      <c r="B172" s="5"/>
+      <c r="A172" s="6"/>
+      <c r="B172" s="6"/>
       <c r="C172" s="2" t="s">
         <v>265</v>
       </c>
@@ -4811,8 +4843,8 @@
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="5"/>
-      <c r="B173" s="5"/>
+      <c r="A173" s="6"/>
+      <c r="B173" s="6"/>
       <c r="C173" s="2" t="s">
         <v>286</v>
       </c>
@@ -4821,8 +4853,8 @@
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="5"/>
-      <c r="B174" s="5"/>
+      <c r="A174" s="6"/>
+      <c r="B174" s="6"/>
       <c r="C174" s="2" t="s">
         <v>288</v>
       </c>
@@ -4831,7 +4863,7 @@
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="5"/>
+      <c r="A175" s="6"/>
       <c r="B175" s="1" t="s">
         <v>301</v>
       </c>
@@ -4843,10 +4875,10 @@
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="5" t="s">
+      <c r="A178" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="6" t="s">
         <v>290</v>
       </c>
       <c r="C178" s="2" t="s">
@@ -4857,8 +4889,8 @@
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="5"/>
-      <c r="B179" s="5"/>
+      <c r="A179" s="6"/>
+      <c r="B179" s="6"/>
       <c r="C179" s="2" t="s">
         <v>309</v>
       </c>
@@ -4916,22 +4948,7 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B143:B147"/>
-    <mergeCell ref="A178:A183"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B53:B61"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A2:A142"/>
-    <mergeCell ref="B154:B158"/>
-    <mergeCell ref="B159:B163"/>
-    <mergeCell ref="B164:B168"/>
-    <mergeCell ref="B171:B174"/>
-    <mergeCell ref="A154:A175"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="A2:A152"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B84:B85"/>
     <mergeCell ref="B99:B103"/>
@@ -4942,6 +4959,21 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="A178:A183"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B154:B158"/>
+    <mergeCell ref="B159:B163"/>
+    <mergeCell ref="B164:B168"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="A154:A175"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B178:B179"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/client/doc/特效名替换备注.xlsx
+++ b/client/doc/特效名替换备注.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="322">
   <si>
     <t>原先变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1088,6 +1088,13 @@
   </si>
   <si>
     <t>ccbFnExtract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccbFnRank</t>
+  </si>
+  <si>
+    <t>uiEffect95</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1161,7 +1168,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="859">
+  <cellStyleXfs count="863">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2021,8 +2028,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2040,15 +2051,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="859">
+  <cellStyles count="863">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2478,6 +2494,8 @@
     <cellStyle name="超链接" xfId="853" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="855" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="861" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2907,6 +2925,8 @@
     <cellStyle name="访问过的超链接" xfId="854" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="856" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="862" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3236,10 +3256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D183"/>
+  <dimension ref="A1:D184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -3263,7 +3283,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>255</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3277,7 +3297,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="6"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
@@ -3289,7 +3309,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="6"/>
       <c r="C4" s="2" t="s">
         <v>97</v>
@@ -3299,13 +3319,13 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="6"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
@@ -3317,7 +3337,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="6"/>
       <c r="C7" s="2" t="s">
         <v>75</v>
@@ -3327,7 +3347,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
@@ -3337,7 +3357,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="6"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
@@ -3349,7 +3369,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="6"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
         <v>79</v>
@@ -3359,7 +3379,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
@@ -3371,7 +3391,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="6"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="6"/>
       <c r="C12" s="2" t="s">
         <v>83</v>
@@ -3381,7 +3401,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="6"/>
       <c r="C13" s="2" t="s">
         <v>85</v>
@@ -3391,14 +3411,14 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="6"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="6"/>
       <c r="D14" s="2" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="6"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
@@ -3410,7 +3430,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="6"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="6"/>
       <c r="C16" s="2" t="s">
         <v>88</v>
@@ -3420,7 +3440,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="6"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="6"/>
       <c r="C17" s="2" t="s">
         <v>89</v>
@@ -3430,7 +3450,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="6"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="6"/>
       <c r="C18" s="2" t="s">
         <v>93</v>
@@ -3440,7 +3460,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="6"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="6"/>
       <c r="C19" s="2" t="s">
         <v>95</v>
@@ -3450,61 +3470,61 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="6"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="6"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="6"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="6"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="6"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="6"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="6"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="6"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="6"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="6" t="s">
         <v>21</v>
       </c>
@@ -3516,7 +3536,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="6"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="6"/>
       <c r="C30" s="2" t="s">
         <v>101</v>
@@ -3526,7 +3546,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="6"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="1" t="s">
         <v>22</v>
       </c>
@@ -3538,37 +3558,37 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="6"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="6"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="6"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="6"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="6"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="6"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="1" t="s">
         <v>28</v>
       </c>
@@ -3580,19 +3600,19 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="6"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="6"/>
+      <c r="A39" s="10"/>
       <c r="B39" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="6"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="6" t="s">
         <v>31</v>
       </c>
@@ -3604,7 +3624,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="6"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="6"/>
       <c r="C41" s="2" t="s">
         <v>109</v>
@@ -3614,7 +3634,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="6"/>
+      <c r="A42" s="10"/>
       <c r="B42" s="6"/>
       <c r="C42" s="2" t="s">
         <v>110</v>
@@ -3624,31 +3644,31 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="6"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="6"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="6"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="6"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="6"/>
+      <c r="A47" s="10"/>
       <c r="B47" s="6" t="s">
         <v>36</v>
       </c>
@@ -3660,7 +3680,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="6"/>
+      <c r="A48" s="10"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2" t="s">
         <v>99</v>
@@ -3670,32 +3690,32 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="6"/>
+      <c r="A49" s="10"/>
       <c r="B49" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="6"/>
+      <c r="A50" s="10"/>
       <c r="B50" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="6"/>
+      <c r="A51" s="10"/>
       <c r="B51" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="6"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="6"/>
-      <c r="B53" s="8" t="s">
+      <c r="A53" s="10"/>
+      <c r="B53" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -3706,8 +3726,8 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="6"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="2" t="s">
         <v>116</v>
       </c>
@@ -3716,8 +3736,8 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="6"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="2" t="s">
         <v>118</v>
       </c>
@@ -3726,8 +3746,8 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="6"/>
-      <c r="B56" s="8"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="2" t="s">
         <v>120</v>
       </c>
@@ -3736,8 +3756,8 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="6"/>
-      <c r="B57" s="8"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2" t="s">
         <v>122</v>
       </c>
@@ -3746,8 +3766,8 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="6"/>
-      <c r="B58" s="8"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="2" t="s">
         <v>124</v>
       </c>
@@ -3756,8 +3776,8 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="6"/>
-      <c r="B59" s="8"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="2" t="s">
         <v>126</v>
       </c>
@@ -3766,8 +3786,8 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="6"/>
-      <c r="B60" s="8"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="2" t="s">
         <v>128</v>
       </c>
@@ -3776,8 +3796,8 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="6"/>
-      <c r="B61" s="8"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="2" t="s">
         <v>130</v>
       </c>
@@ -3786,7 +3806,7 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="6"/>
+      <c r="A62" s="10"/>
       <c r="B62" s="1" t="s">
         <v>42</v>
       </c>
@@ -3798,7 +3818,7 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="6"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="6" t="s">
         <v>43</v>
       </c>
@@ -3810,7 +3830,7 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="6"/>
+      <c r="A64" s="10"/>
       <c r="B64" s="6"/>
       <c r="C64" s="2" t="s">
         <v>134</v>
@@ -3820,7 +3840,7 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="6"/>
+      <c r="A65" s="10"/>
       <c r="B65" s="6"/>
       <c r="C65" s="2" t="s">
         <v>124</v>
@@ -3830,7 +3850,7 @@
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="6"/>
+      <c r="A66" s="10"/>
       <c r="B66" s="6"/>
       <c r="C66" s="2" t="s">
         <v>128</v>
@@ -3840,7 +3860,7 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="6"/>
+      <c r="A67" s="10"/>
       <c r="B67" s="6"/>
       <c r="C67" s="2" t="s">
         <v>136</v>
@@ -3850,7 +3870,7 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="6"/>
+      <c r="A68" s="10"/>
       <c r="B68" s="6" t="s">
         <v>44</v>
       </c>
@@ -3862,7 +3882,7 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="6"/>
+      <c r="A69" s="10"/>
       <c r="B69" s="6"/>
       <c r="C69" s="2" t="s">
         <v>141</v>
@@ -3872,7 +3892,7 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="6"/>
+      <c r="A70" s="10"/>
       <c r="B70" s="6"/>
       <c r="C70" s="2" t="s">
         <v>143</v>
@@ -3882,7 +3902,7 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="6"/>
+      <c r="A71" s="10"/>
       <c r="B71" s="6"/>
       <c r="C71" s="2" t="s">
         <v>145</v>
@@ -3892,7 +3912,7 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="6"/>
+      <c r="A72" s="10"/>
       <c r="B72" s="6" t="s">
         <v>45</v>
       </c>
@@ -3904,7 +3924,7 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="6"/>
+      <c r="A73" s="10"/>
       <c r="B73" s="6"/>
       <c r="C73" s="2" t="s">
         <v>149</v>
@@ -3914,25 +3934,25 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="6"/>
+      <c r="A74" s="10"/>
       <c r="B74" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="6"/>
+      <c r="A75" s="10"/>
       <c r="B75" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="6"/>
+      <c r="A76" s="10"/>
       <c r="B76" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="6"/>
+      <c r="A77" s="10"/>
       <c r="B77" s="6" t="s">
         <v>49</v>
       </c>
@@ -3944,7 +3964,7 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="6"/>
+      <c r="A78" s="10"/>
       <c r="B78" s="6"/>
       <c r="C78" s="2" t="s">
         <v>153</v>
@@ -3954,7 +3974,7 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="6"/>
+      <c r="A79" s="10"/>
       <c r="B79" s="6"/>
       <c r="C79" s="2" t="s">
         <v>155</v>
@@ -3964,7 +3984,7 @@
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="6"/>
+      <c r="A80" s="10"/>
       <c r="B80" s="6"/>
       <c r="C80" s="2" t="s">
         <v>95</v>
@@ -3974,7 +3994,7 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="6"/>
+      <c r="A81" s="10"/>
       <c r="B81" s="6"/>
       <c r="C81" s="2" t="s">
         <v>157</v>
@@ -3984,13 +4004,13 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="6"/>
+      <c r="A82" s="10"/>
       <c r="B82" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="6"/>
+      <c r="A83" s="10"/>
       <c r="B83" s="1" t="s">
         <v>51</v>
       </c>
@@ -4002,7 +4022,7 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="6"/>
+      <c r="A84" s="10"/>
       <c r="B84" s="6" t="s">
         <v>52</v>
       </c>
@@ -4014,7 +4034,7 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="6"/>
+      <c r="A85" s="10"/>
       <c r="B85" s="6"/>
       <c r="C85" s="2" t="s">
         <v>164</v>
@@ -4024,43 +4044,43 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="6"/>
+      <c r="A86" s="10"/>
       <c r="B86" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="6"/>
+      <c r="A87" s="10"/>
       <c r="B87" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="6"/>
+      <c r="A88" s="10"/>
       <c r="B88" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="6"/>
+      <c r="A89" s="10"/>
       <c r="B89" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="6"/>
+      <c r="A90" s="10"/>
       <c r="B90" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="6"/>
+      <c r="A91" s="10"/>
       <c r="B91" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="6"/>
+      <c r="A92" s="10"/>
       <c r="B92" s="1" t="s">
         <v>59</v>
       </c>
@@ -4072,7 +4092,7 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="6"/>
+      <c r="A93" s="10"/>
       <c r="C93" s="2" t="s">
         <v>168</v>
       </c>
@@ -4081,7 +4101,7 @@
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="6"/>
+      <c r="A94" s="10"/>
       <c r="C94" s="2" t="s">
         <v>170</v>
       </c>
@@ -4090,7 +4110,7 @@
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="6"/>
+      <c r="A95" s="10"/>
       <c r="C95" s="2" t="s">
         <v>172</v>
       </c>
@@ -4099,13 +4119,13 @@
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="6"/>
+      <c r="A96" s="10"/>
       <c r="B96" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="6"/>
+      <c r="A97" s="10"/>
       <c r="B97" s="1" t="s">
         <v>61</v>
       </c>
@@ -4117,7 +4137,7 @@
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="6"/>
+      <c r="A98" s="10"/>
       <c r="B98" s="1" t="s">
         <v>62</v>
       </c>
@@ -4129,7 +4149,7 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="6"/>
+      <c r="A99" s="10"/>
       <c r="B99" s="6" t="s">
         <v>63</v>
       </c>
@@ -4141,7 +4161,7 @@
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="6"/>
+      <c r="A100" s="10"/>
       <c r="B100" s="6"/>
       <c r="C100" s="2" t="s">
         <v>178</v>
@@ -4151,7 +4171,7 @@
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="6"/>
+      <c r="A101" s="10"/>
       <c r="B101" s="6"/>
       <c r="C101" s="2" t="s">
         <v>179</v>
@@ -4161,7 +4181,7 @@
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="6"/>
+      <c r="A102" s="10"/>
       <c r="B102" s="6"/>
       <c r="C102" s="2" t="s">
         <v>181</v>
@@ -4171,7 +4191,7 @@
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="6"/>
+      <c r="A103" s="10"/>
       <c r="B103" s="6"/>
       <c r="C103" s="2" t="s">
         <v>183</v>
@@ -4181,31 +4201,31 @@
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="6"/>
+      <c r="A104" s="10"/>
       <c r="B104" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="6"/>
+      <c r="A105" s="10"/>
       <c r="B105" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="6"/>
+      <c r="A106" s="10"/>
       <c r="B106" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="6"/>
+      <c r="A107" s="10"/>
       <c r="B107" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="6"/>
+      <c r="A108" s="10"/>
       <c r="B108" s="6" t="s">
         <v>68</v>
       </c>
@@ -4217,7 +4237,7 @@
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="6"/>
+      <c r="A109" s="10"/>
       <c r="B109" s="6"/>
       <c r="C109" s="2" t="s">
         <v>188</v>
@@ -4227,7 +4247,7 @@
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="6"/>
+      <c r="A110" s="10"/>
       <c r="B110" s="6"/>
       <c r="C110" s="2" t="s">
         <v>190</v>
@@ -4237,7 +4257,7 @@
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="6"/>
+      <c r="A111" s="10"/>
       <c r="B111" s="6"/>
       <c r="C111" s="2" t="s">
         <v>191</v>
@@ -4247,7 +4267,7 @@
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="6"/>
+      <c r="A112" s="10"/>
       <c r="B112" s="6"/>
       <c r="C112" s="2" t="s">
         <v>192</v>
@@ -4257,7 +4277,7 @@
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="6"/>
+      <c r="A113" s="10"/>
       <c r="B113" s="6"/>
       <c r="C113" s="2" t="s">
         <v>193</v>
@@ -4267,7 +4287,7 @@
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="6"/>
+      <c r="A114" s="10"/>
       <c r="B114" s="6"/>
       <c r="C114" s="2" t="s">
         <v>194</v>
@@ -4277,7 +4297,7 @@
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="6"/>
+      <c r="A115" s="10"/>
       <c r="B115" s="6"/>
       <c r="C115" s="2" t="s">
         <v>195</v>
@@ -4287,7 +4307,7 @@
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="6"/>
+      <c r="A116" s="10"/>
       <c r="B116" s="6"/>
       <c r="C116" s="2" t="s">
         <v>196</v>
@@ -4297,7 +4317,7 @@
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="6"/>
+      <c r="A117" s="10"/>
       <c r="B117" s="6"/>
       <c r="C117" s="2" t="s">
         <v>197</v>
@@ -4307,7 +4327,7 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="6"/>
+      <c r="A118" s="10"/>
       <c r="B118" s="6"/>
       <c r="C118" s="2" t="s">
         <v>198</v>
@@ -4317,7 +4337,7 @@
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="6"/>
+      <c r="A119" s="10"/>
       <c r="B119" s="6"/>
       <c r="C119" s="2" t="s">
         <v>208</v>
@@ -4327,7 +4347,7 @@
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="6"/>
+      <c r="A120" s="10"/>
       <c r="B120" s="6"/>
       <c r="C120" s="2" t="s">
         <v>209</v>
@@ -4337,7 +4357,7 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="6"/>
+      <c r="A121" s="10"/>
       <c r="B121" s="6"/>
       <c r="C121" s="2" t="s">
         <v>210</v>
@@ -4347,7 +4367,7 @@
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="6"/>
+      <c r="A122" s="10"/>
       <c r="B122" s="6"/>
       <c r="C122" s="2" t="s">
         <v>211</v>
@@ -4357,7 +4377,7 @@
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="6"/>
+      <c r="A123" s="10"/>
       <c r="B123" s="6"/>
       <c r="C123" s="2" t="s">
         <v>212</v>
@@ -4367,7 +4387,7 @@
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="6"/>
+      <c r="A124" s="10"/>
       <c r="B124" s="6"/>
       <c r="C124" s="2" t="s">
         <v>213</v>
@@ -4377,7 +4397,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="6"/>
+      <c r="A125" s="10"/>
       <c r="B125" s="6"/>
       <c r="C125" s="2" t="s">
         <v>214</v>
@@ -4387,7 +4407,7 @@
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="6"/>
+      <c r="A126" s="10"/>
       <c r="B126" s="6"/>
       <c r="C126" s="2" t="s">
         <v>215</v>
@@ -4397,7 +4417,7 @@
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="6"/>
+      <c r="A127" s="10"/>
       <c r="B127" s="6"/>
       <c r="C127" s="2" t="s">
         <v>216</v>
@@ -4407,7 +4427,7 @@
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="6"/>
+      <c r="A128" s="10"/>
       <c r="B128" s="6"/>
       <c r="C128" s="2" t="s">
         <v>217</v>
@@ -4417,7 +4437,7 @@
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="6"/>
+      <c r="A129" s="10"/>
       <c r="B129" s="6"/>
       <c r="C129" s="2" t="s">
         <v>228</v>
@@ -4427,7 +4447,7 @@
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="6"/>
+      <c r="A130" s="10"/>
       <c r="B130" s="6"/>
       <c r="C130" s="2" t="s">
         <v>229</v>
@@ -4437,7 +4457,7 @@
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="6"/>
+      <c r="A131" s="10"/>
       <c r="B131" s="6"/>
       <c r="C131" s="2" t="s">
         <v>230</v>
@@ -4447,7 +4467,7 @@
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="6"/>
+      <c r="A132" s="10"/>
       <c r="B132" s="6"/>
       <c r="C132" s="2" t="s">
         <v>231</v>
@@ -4457,7 +4477,7 @@
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="6"/>
+      <c r="A133" s="10"/>
       <c r="B133" s="6"/>
       <c r="C133" s="2" t="s">
         <v>232</v>
@@ -4467,7 +4487,7 @@
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="6"/>
+      <c r="A134" s="10"/>
       <c r="B134" s="6"/>
       <c r="C134" s="2" t="s">
         <v>233</v>
@@ -4477,7 +4497,7 @@
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="6"/>
+      <c r="A135" s="10"/>
       <c r="B135" s="6"/>
       <c r="C135" s="2" t="s">
         <v>234</v>
@@ -4487,7 +4507,7 @@
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="6"/>
+      <c r="A136" s="10"/>
       <c r="B136" s="6"/>
       <c r="C136" s="2" t="s">
         <v>235</v>
@@ -4497,7 +4517,7 @@
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="6"/>
+      <c r="A137" s="10"/>
       <c r="B137" s="6"/>
       <c r="C137" s="2" t="s">
         <v>236</v>
@@ -4507,7 +4527,7 @@
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="6"/>
+      <c r="A138" s="10"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2" t="s">
         <v>237</v>
@@ -4517,7 +4537,7 @@
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="6"/>
+      <c r="A139" s="10"/>
       <c r="B139" s="3" t="s">
         <v>69</v>
       </c>
@@ -4529,8 +4549,8 @@
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="6"/>
-      <c r="B140" s="5" t="s">
+      <c r="A140" s="10"/>
+      <c r="B140" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C140" s="2" t="s">
@@ -4541,8 +4561,8 @@
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="6"/>
-      <c r="B141" s="5"/>
+      <c r="A141" s="10"/>
+      <c r="B141" s="7"/>
       <c r="C141" s="2" t="s">
         <v>252</v>
       </c>
@@ -4551,14 +4571,14 @@
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="6"/>
+      <c r="A142" s="10"/>
       <c r="B142" s="3" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="9"/>
-      <c r="B143" s="5" t="s">
+      <c r="A143" s="10"/>
+      <c r="B143" s="7" t="s">
         <v>302</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -4566,35 +4586,35 @@
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="9"/>
-      <c r="B144" s="5"/>
+      <c r="A144" s="10"/>
+      <c r="B144" s="7"/>
       <c r="D144" s="2" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="9"/>
-      <c r="B145" s="5"/>
+      <c r="A145" s="10"/>
+      <c r="B145" s="7"/>
       <c r="D145" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="9"/>
-      <c r="B146" s="5"/>
+      <c r="A146" s="10"/>
+      <c r="B146" s="7"/>
       <c r="D146" s="2" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="9"/>
-      <c r="B147" s="5"/>
+      <c r="A147" s="10"/>
+      <c r="B147" s="7"/>
       <c r="D147" s="2" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="9"/>
+      <c r="A148" s="10"/>
       <c r="B148" s="4" t="s">
         <v>311</v>
       </c>
@@ -4603,7 +4623,7 @@
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="9"/>
+      <c r="A149" s="10"/>
       <c r="B149" s="4" t="s">
         <v>313</v>
       </c>
@@ -4612,7 +4632,7 @@
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="9"/>
+      <c r="A150" s="10"/>
       <c r="B150" s="4" t="s">
         <v>314</v>
       </c>
@@ -4621,7 +4641,7 @@
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="9"/>
+      <c r="A151" s="10"/>
       <c r="B151" s="4" t="s">
         <v>315</v>
       </c>
@@ -4630,7 +4650,7 @@
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="9"/>
+      <c r="A152" s="10"/>
       <c r="B152" s="4" t="s">
         <v>315</v>
       </c>
@@ -4638,183 +4658,180 @@
         <v>316</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="6" t="s">
+    <row r="153" spans="1:4">
+      <c r="A153" s="10"/>
+      <c r="B153" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B155" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C155" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D155" s="2" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="6"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="6"/>
-      <c r="B159" s="6" t="s">
-        <v>267</v>
-      </c>
+      <c r="B159" s="6"/>
       <c r="C159" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="6"/>
-      <c r="B160" s="6"/>
+      <c r="B160" s="6" t="s">
+        <v>267</v>
+      </c>
       <c r="C160" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="6"/>
-      <c r="B164" s="6" t="s">
-        <v>278</v>
-      </c>
+      <c r="B164" s="6"/>
       <c r="C164" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="6"/>
-      <c r="B165" s="6"/>
+      <c r="B165" s="6" t="s">
+        <v>278</v>
+      </c>
       <c r="C165" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="6"/>
-      <c r="B169" s="1" t="s">
-        <v>281</v>
-      </c>
+      <c r="B169" s="6"/>
       <c r="C169" s="2" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="6"/>
       <c r="B170" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>280</v>
@@ -4822,98 +4839,98 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="6"/>
-      <c r="B171" s="6" t="s">
-        <v>283</v>
+      <c r="B171" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="6"/>
-      <c r="B172" s="6"/>
+      <c r="B172" s="6" t="s">
+        <v>283</v>
+      </c>
       <c r="C172" s="2" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="2" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="6"/>
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="6"/>
+      <c r="C175" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="6"/>
+      <c r="B176" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C176" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D176" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="6" t="s">
+    <row r="179" spans="1:4">
+      <c r="A179" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B179" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C179" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D179" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="6"/>
-      <c r="B179" s="6"/>
-      <c r="C179" s="2" t="s">
+    <row r="180" spans="1:4">
+      <c r="A180" s="6"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D180" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="7"/>
-      <c r="B180" s="1" t="s">
+    <row r="181" spans="1:4">
+      <c r="A181" s="8"/>
+      <c r="B181" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="7"/>
-      <c r="B181" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>295</v>
@@ -4923,9 +4940,9 @@
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="7"/>
+      <c r="A182" s="8"/>
       <c r="B182" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>295</v>
@@ -4935,9 +4952,9 @@
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="7"/>
+      <c r="A183" s="8"/>
       <c r="B183" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>295</v>
@@ -4946,9 +4963,35 @@
         <v>296</v>
       </c>
     </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="8"/>
+      <c r="B184" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A2:A152"/>
+    <mergeCell ref="A179:A184"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B155:B159"/>
+    <mergeCell ref="B160:B164"/>
+    <mergeCell ref="B165:B169"/>
+    <mergeCell ref="B172:B175"/>
+    <mergeCell ref="A155:A176"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="A2:A153"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B84:B85"/>
     <mergeCell ref="B99:B103"/>
@@ -4960,20 +5003,6 @@
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B143:B147"/>
-    <mergeCell ref="A178:A183"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B53:B61"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B154:B158"/>
-    <mergeCell ref="B159:B163"/>
-    <mergeCell ref="B164:B168"/>
-    <mergeCell ref="B171:B174"/>
-    <mergeCell ref="A154:A175"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B178:B179"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/client/doc/特效名替换备注.xlsx
+++ b/client/doc/特效名替换备注.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="326">
   <si>
     <t>原先变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1096,6 +1096,18 @@
   <si>
     <t>uiEffect95</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccbGoodsLabel</t>
+  </si>
+  <si>
+    <t>ccbGoodsIcon1</t>
+  </si>
+  <si>
+    <t>ccbGoodsIcon2</t>
+  </si>
+  <si>
+    <t>ccbGoodsIcon3</t>
   </si>
 </sst>
 </file>
@@ -1168,8 +1180,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="863">
+  <cellStyleXfs count="867">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2051,9 +2067,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2063,8 +2076,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="863">
+  <cellStyles count="867">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2496,6 +2512,8 @@
     <cellStyle name="超链接" xfId="857" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="859" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="865" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2927,6 +2945,8 @@
     <cellStyle name="访问过的超链接" xfId="858" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="860" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="866" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3256,9 +3276,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
       <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
@@ -3283,7 +3303,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>255</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3297,7 +3317,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="10"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
@@ -3309,7 +3329,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="6"/>
       <c r="C4" s="2" t="s">
         <v>97</v>
@@ -3319,13 +3339,13 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="10"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
@@ -3337,7 +3357,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="6"/>
       <c r="C7" s="2" t="s">
         <v>75</v>
@@ -3347,7 +3367,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="10"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
@@ -3357,7 +3377,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
@@ -3369,7 +3389,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="10"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
         <v>79</v>
@@ -3379,7 +3399,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="10"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
@@ -3391,7 +3411,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="10"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="6"/>
       <c r="C12" s="2" t="s">
         <v>83</v>
@@ -3401,7 +3421,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="10"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="6"/>
       <c r="C13" s="2" t="s">
         <v>85</v>
@@ -3411,14 +3431,14 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="10"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="6"/>
       <c r="D14" s="2" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
@@ -3430,7 +3450,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="10"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="6"/>
       <c r="C16" s="2" t="s">
         <v>88</v>
@@ -3440,7 +3460,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="10"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="6"/>
       <c r="C17" s="2" t="s">
         <v>89</v>
@@ -3450,7 +3470,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="10"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="6"/>
       <c r="C18" s="2" t="s">
         <v>93</v>
@@ -3460,7 +3480,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="10"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="6"/>
       <c r="C19" s="2" t="s">
         <v>95</v>
@@ -3470,61 +3490,61 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="10"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="10"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="10"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="10"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="10"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="10"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="10"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="10"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="10"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="10"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="6" t="s">
         <v>21</v>
       </c>
@@ -3536,7 +3556,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="10"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="6"/>
       <c r="C30" s="2" t="s">
         <v>101</v>
@@ -3546,7 +3566,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="10"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="1" t="s">
         <v>22</v>
       </c>
@@ -3558,37 +3578,37 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="10"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="10"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="10"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="10"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="10"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="10"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="1" t="s">
         <v>28</v>
       </c>
@@ -3600,19 +3620,19 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="10"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="10"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="10"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="6" t="s">
         <v>31</v>
       </c>
@@ -3624,7 +3644,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="10"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="6"/>
       <c r="C41" s="2" t="s">
         <v>109</v>
@@ -3634,7 +3654,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="10"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="6"/>
       <c r="C42" s="2" t="s">
         <v>110</v>
@@ -3644,31 +3664,31 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="10"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="10"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="10"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="10"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="10"/>
+      <c r="A47" s="9"/>
       <c r="B47" s="6" t="s">
         <v>36</v>
       </c>
@@ -3680,7 +3700,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="10"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2" t="s">
         <v>99</v>
@@ -3690,32 +3710,32 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="10"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="10"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="10"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="10"/>
+      <c r="A52" s="9"/>
       <c r="B52" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="10"/>
-      <c r="B53" s="9" t="s">
+      <c r="A53" s="9"/>
+      <c r="B53" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -3726,8 +3746,8 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="10"/>
-      <c r="B54" s="9"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="8"/>
       <c r="C54" s="2" t="s">
         <v>116</v>
       </c>
@@ -3736,8 +3756,8 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="10"/>
-      <c r="B55" s="9"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="8"/>
       <c r="C55" s="2" t="s">
         <v>118</v>
       </c>
@@ -3746,8 +3766,8 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="10"/>
-      <c r="B56" s="9"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="8"/>
       <c r="C56" s="2" t="s">
         <v>120</v>
       </c>
@@ -3756,8 +3776,8 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="10"/>
-      <c r="B57" s="9"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="8"/>
       <c r="C57" s="2" t="s">
         <v>122</v>
       </c>
@@ -3766,8 +3786,8 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="10"/>
-      <c r="B58" s="9"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="8"/>
       <c r="C58" s="2" t="s">
         <v>124</v>
       </c>
@@ -3776,8 +3796,8 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="10"/>
-      <c r="B59" s="9"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="8"/>
       <c r="C59" s="2" t="s">
         <v>126</v>
       </c>
@@ -3786,8 +3806,8 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="10"/>
-      <c r="B60" s="9"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="2" t="s">
         <v>128</v>
       </c>
@@ -3796,8 +3816,8 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="10"/>
-      <c r="B61" s="9"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="8"/>
       <c r="C61" s="2" t="s">
         <v>130</v>
       </c>
@@ -3806,7 +3826,7 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="10"/>
+      <c r="A62" s="9"/>
       <c r="B62" s="1" t="s">
         <v>42</v>
       </c>
@@ -3818,7 +3838,7 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="10"/>
+      <c r="A63" s="9"/>
       <c r="B63" s="6" t="s">
         <v>43</v>
       </c>
@@ -3830,7 +3850,7 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="10"/>
+      <c r="A64" s="9"/>
       <c r="B64" s="6"/>
       <c r="C64" s="2" t="s">
         <v>134</v>
@@ -3840,7 +3860,7 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="10"/>
+      <c r="A65" s="9"/>
       <c r="B65" s="6"/>
       <c r="C65" s="2" t="s">
         <v>124</v>
@@ -3850,7 +3870,7 @@
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="10"/>
+      <c r="A66" s="9"/>
       <c r="B66" s="6"/>
       <c r="C66" s="2" t="s">
         <v>128</v>
@@ -3860,7 +3880,7 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="10"/>
+      <c r="A67" s="9"/>
       <c r="B67" s="6"/>
       <c r="C67" s="2" t="s">
         <v>136</v>
@@ -3870,7 +3890,7 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="10"/>
+      <c r="A68" s="9"/>
       <c r="B68" s="6" t="s">
         <v>44</v>
       </c>
@@ -3882,7 +3902,7 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="10"/>
+      <c r="A69" s="9"/>
       <c r="B69" s="6"/>
       <c r="C69" s="2" t="s">
         <v>141</v>
@@ -3892,7 +3912,7 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="10"/>
+      <c r="A70" s="9"/>
       <c r="B70" s="6"/>
       <c r="C70" s="2" t="s">
         <v>143</v>
@@ -3902,7 +3922,7 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="10"/>
+      <c r="A71" s="9"/>
       <c r="B71" s="6"/>
       <c r="C71" s="2" t="s">
         <v>145</v>
@@ -3912,7 +3932,7 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="10"/>
+      <c r="A72" s="9"/>
       <c r="B72" s="6" t="s">
         <v>45</v>
       </c>
@@ -3924,7 +3944,7 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="10"/>
+      <c r="A73" s="9"/>
       <c r="B73" s="6"/>
       <c r="C73" s="2" t="s">
         <v>149</v>
@@ -3934,25 +3954,25 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="10"/>
+      <c r="A74" s="9"/>
       <c r="B74" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="10"/>
+      <c r="A75" s="9"/>
       <c r="B75" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="10"/>
+      <c r="A76" s="9"/>
       <c r="B76" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="10"/>
+      <c r="A77" s="9"/>
       <c r="B77" s="6" t="s">
         <v>49</v>
       </c>
@@ -3964,7 +3984,7 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="10"/>
+      <c r="A78" s="9"/>
       <c r="B78" s="6"/>
       <c r="C78" s="2" t="s">
         <v>153</v>
@@ -3974,7 +3994,7 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="10"/>
+      <c r="A79" s="9"/>
       <c r="B79" s="6"/>
       <c r="C79" s="2" t="s">
         <v>155</v>
@@ -3984,7 +4004,7 @@
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="10"/>
+      <c r="A80" s="9"/>
       <c r="B80" s="6"/>
       <c r="C80" s="2" t="s">
         <v>95</v>
@@ -3994,7 +4014,7 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="10"/>
+      <c r="A81" s="9"/>
       <c r="B81" s="6"/>
       <c r="C81" s="2" t="s">
         <v>157</v>
@@ -4004,13 +4024,13 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="10"/>
+      <c r="A82" s="9"/>
       <c r="B82" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="10"/>
+      <c r="A83" s="9"/>
       <c r="B83" s="1" t="s">
         <v>51</v>
       </c>
@@ -4022,7 +4042,7 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="10"/>
+      <c r="A84" s="9"/>
       <c r="B84" s="6" t="s">
         <v>52</v>
       </c>
@@ -4034,7 +4054,7 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="10"/>
+      <c r="A85" s="9"/>
       <c r="B85" s="6"/>
       <c r="C85" s="2" t="s">
         <v>164</v>
@@ -4044,43 +4064,43 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="10"/>
+      <c r="A86" s="9"/>
       <c r="B86" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="10"/>
+      <c r="A87" s="9"/>
       <c r="B87" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="10"/>
+      <c r="A88" s="9"/>
       <c r="B88" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="10"/>
+      <c r="A89" s="9"/>
       <c r="B89" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="10"/>
+      <c r="A90" s="9"/>
       <c r="B90" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="10"/>
+      <c r="A91" s="9"/>
       <c r="B91" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="10"/>
+      <c r="A92" s="9"/>
       <c r="B92" s="1" t="s">
         <v>59</v>
       </c>
@@ -4092,7 +4112,7 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="10"/>
+      <c r="A93" s="9"/>
       <c r="C93" s="2" t="s">
         <v>168</v>
       </c>
@@ -4101,7 +4121,7 @@
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="10"/>
+      <c r="A94" s="9"/>
       <c r="C94" s="2" t="s">
         <v>170</v>
       </c>
@@ -4110,7 +4130,7 @@
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="10"/>
+      <c r="A95" s="9"/>
       <c r="C95" s="2" t="s">
         <v>172</v>
       </c>
@@ -4119,13 +4139,13 @@
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="10"/>
+      <c r="A96" s="9"/>
       <c r="B96" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="10"/>
+      <c r="A97" s="9"/>
       <c r="B97" s="1" t="s">
         <v>61</v>
       </c>
@@ -4137,7 +4157,7 @@
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="10"/>
+      <c r="A98" s="9"/>
       <c r="B98" s="1" t="s">
         <v>62</v>
       </c>
@@ -4149,7 +4169,7 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="10"/>
+      <c r="A99" s="9"/>
       <c r="B99" s="6" t="s">
         <v>63</v>
       </c>
@@ -4161,7 +4181,7 @@
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="10"/>
+      <c r="A100" s="9"/>
       <c r="B100" s="6"/>
       <c r="C100" s="2" t="s">
         <v>178</v>
@@ -4171,7 +4191,7 @@
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="10"/>
+      <c r="A101" s="9"/>
       <c r="B101" s="6"/>
       <c r="C101" s="2" t="s">
         <v>179</v>
@@ -4181,7 +4201,7 @@
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="10"/>
+      <c r="A102" s="9"/>
       <c r="B102" s="6"/>
       <c r="C102" s="2" t="s">
         <v>181</v>
@@ -4191,7 +4211,7 @@
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="10"/>
+      <c r="A103" s="9"/>
       <c r="B103" s="6"/>
       <c r="C103" s="2" t="s">
         <v>183</v>
@@ -4201,31 +4221,31 @@
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="10"/>
+      <c r="A104" s="9"/>
       <c r="B104" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="10"/>
+      <c r="A105" s="9"/>
       <c r="B105" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="10"/>
+      <c r="A106" s="9"/>
       <c r="B106" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="10"/>
+      <c r="A107" s="9"/>
       <c r="B107" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="10"/>
+      <c r="A108" s="9"/>
       <c r="B108" s="6" t="s">
         <v>68</v>
       </c>
@@ -4237,7 +4257,7 @@
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="10"/>
+      <c r="A109" s="9"/>
       <c r="B109" s="6"/>
       <c r="C109" s="2" t="s">
         <v>188</v>
@@ -4247,7 +4267,7 @@
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="10"/>
+      <c r="A110" s="9"/>
       <c r="B110" s="6"/>
       <c r="C110" s="2" t="s">
         <v>190</v>
@@ -4257,7 +4277,7 @@
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="10"/>
+      <c r="A111" s="9"/>
       <c r="B111" s="6"/>
       <c r="C111" s="2" t="s">
         <v>191</v>
@@ -4267,7 +4287,7 @@
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="10"/>
+      <c r="A112" s="9"/>
       <c r="B112" s="6"/>
       <c r="C112" s="2" t="s">
         <v>192</v>
@@ -4277,7 +4297,7 @@
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="10"/>
+      <c r="A113" s="9"/>
       <c r="B113" s="6"/>
       <c r="C113" s="2" t="s">
         <v>193</v>
@@ -4287,7 +4307,7 @@
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="10"/>
+      <c r="A114" s="9"/>
       <c r="B114" s="6"/>
       <c r="C114" s="2" t="s">
         <v>194</v>
@@ -4297,7 +4317,7 @@
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="10"/>
+      <c r="A115" s="9"/>
       <c r="B115" s="6"/>
       <c r="C115" s="2" t="s">
         <v>195</v>
@@ -4307,7 +4327,7 @@
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="10"/>
+      <c r="A116" s="9"/>
       <c r="B116" s="6"/>
       <c r="C116" s="2" t="s">
         <v>196</v>
@@ -4317,7 +4337,7 @@
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="10"/>
+      <c r="A117" s="9"/>
       <c r="B117" s="6"/>
       <c r="C117" s="2" t="s">
         <v>197</v>
@@ -4327,7 +4347,7 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="10"/>
+      <c r="A118" s="9"/>
       <c r="B118" s="6"/>
       <c r="C118" s="2" t="s">
         <v>198</v>
@@ -4337,7 +4357,7 @@
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="10"/>
+      <c r="A119" s="9"/>
       <c r="B119" s="6"/>
       <c r="C119" s="2" t="s">
         <v>208</v>
@@ -4347,7 +4367,7 @@
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="10"/>
+      <c r="A120" s="9"/>
       <c r="B120" s="6"/>
       <c r="C120" s="2" t="s">
         <v>209</v>
@@ -4357,7 +4377,7 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="10"/>
+      <c r="A121" s="9"/>
       <c r="B121" s="6"/>
       <c r="C121" s="2" t="s">
         <v>210</v>
@@ -4367,7 +4387,7 @@
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="10"/>
+      <c r="A122" s="9"/>
       <c r="B122" s="6"/>
       <c r="C122" s="2" t="s">
         <v>211</v>
@@ -4377,7 +4397,7 @@
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="10"/>
+      <c r="A123" s="9"/>
       <c r="B123" s="6"/>
       <c r="C123" s="2" t="s">
         <v>212</v>
@@ -4387,7 +4407,7 @@
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="10"/>
+      <c r="A124" s="9"/>
       <c r="B124" s="6"/>
       <c r="C124" s="2" t="s">
         <v>213</v>
@@ -4397,7 +4417,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="10"/>
+      <c r="A125" s="9"/>
       <c r="B125" s="6"/>
       <c r="C125" s="2" t="s">
         <v>214</v>
@@ -4407,7 +4427,7 @@
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="10"/>
+      <c r="A126" s="9"/>
       <c r="B126" s="6"/>
       <c r="C126" s="2" t="s">
         <v>215</v>
@@ -4417,7 +4437,7 @@
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="10"/>
+      <c r="A127" s="9"/>
       <c r="B127" s="6"/>
       <c r="C127" s="2" t="s">
         <v>216</v>
@@ -4427,7 +4447,7 @@
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="10"/>
+      <c r="A128" s="9"/>
       <c r="B128" s="6"/>
       <c r="C128" s="2" t="s">
         <v>217</v>
@@ -4437,7 +4457,7 @@
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="10"/>
+      <c r="A129" s="9"/>
       <c r="B129" s="6"/>
       <c r="C129" s="2" t="s">
         <v>228</v>
@@ -4447,7 +4467,7 @@
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="10"/>
+      <c r="A130" s="9"/>
       <c r="B130" s="6"/>
       <c r="C130" s="2" t="s">
         <v>229</v>
@@ -4457,7 +4477,7 @@
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="10"/>
+      <c r="A131" s="9"/>
       <c r="B131" s="6"/>
       <c r="C131" s="2" t="s">
         <v>230</v>
@@ -4467,7 +4487,7 @@
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="10"/>
+      <c r="A132" s="9"/>
       <c r="B132" s="6"/>
       <c r="C132" s="2" t="s">
         <v>231</v>
@@ -4477,7 +4497,7 @@
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="10"/>
+      <c r="A133" s="9"/>
       <c r="B133" s="6"/>
       <c r="C133" s="2" t="s">
         <v>232</v>
@@ -4487,7 +4507,7 @@
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="10"/>
+      <c r="A134" s="9"/>
       <c r="B134" s="6"/>
       <c r="C134" s="2" t="s">
         <v>233</v>
@@ -4497,7 +4517,7 @@
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="10"/>
+      <c r="A135" s="9"/>
       <c r="B135" s="6"/>
       <c r="C135" s="2" t="s">
         <v>234</v>
@@ -4507,7 +4527,7 @@
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="10"/>
+      <c r="A136" s="9"/>
       <c r="B136" s="6"/>
       <c r="C136" s="2" t="s">
         <v>235</v>
@@ -4517,7 +4537,7 @@
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="10"/>
+      <c r="A137" s="9"/>
       <c r="B137" s="6"/>
       <c r="C137" s="2" t="s">
         <v>236</v>
@@ -4527,7 +4547,7 @@
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="10"/>
+      <c r="A138" s="9"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2" t="s">
         <v>237</v>
@@ -4537,7 +4557,7 @@
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="10"/>
+      <c r="A139" s="9"/>
       <c r="B139" s="3" t="s">
         <v>69</v>
       </c>
@@ -4549,8 +4569,8 @@
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="10"/>
-      <c r="B140" s="7" t="s">
+      <c r="A140" s="9"/>
+      <c r="B140" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C140" s="2" t="s">
@@ -4561,8 +4581,8 @@
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="10"/>
-      <c r="B141" s="7"/>
+      <c r="A141" s="9"/>
+      <c r="B141" s="10"/>
       <c r="C141" s="2" t="s">
         <v>252</v>
       </c>
@@ -4571,14 +4591,14 @@
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="10"/>
+      <c r="A142" s="9"/>
       <c r="B142" s="3" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="10"/>
-      <c r="B143" s="7" t="s">
+      <c r="A143" s="9"/>
+      <c r="B143" s="10" t="s">
         <v>302</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -4586,35 +4606,35 @@
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="10"/>
-      <c r="B144" s="7"/>
+      <c r="A144" s="9"/>
+      <c r="B144" s="10"/>
       <c r="D144" s="2" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="10"/>
-      <c r="B145" s="7"/>
+      <c r="A145" s="9"/>
+      <c r="B145" s="10"/>
       <c r="D145" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="10"/>
-      <c r="B146" s="7"/>
+      <c r="A146" s="9"/>
+      <c r="B146" s="10"/>
       <c r="D146" s="2" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="10"/>
-      <c r="B147" s="7"/>
+      <c r="A147" s="9"/>
+      <c r="B147" s="10"/>
       <c r="D147" s="2" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="10"/>
+      <c r="A148" s="9"/>
       <c r="B148" s="4" t="s">
         <v>311</v>
       </c>
@@ -4623,7 +4643,7 @@
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="10"/>
+      <c r="A149" s="9"/>
       <c r="B149" s="4" t="s">
         <v>313</v>
       </c>
@@ -4632,317 +4652,307 @@
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="10"/>
-      <c r="B150" s="4" t="s">
+      <c r="A150" s="9"/>
+      <c r="B150" s="10" t="s">
         <v>314</v>
       </c>
+      <c r="C150" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="D150" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="10"/>
-      <c r="B151" s="4" t="s">
+      <c r="A151" s="9"/>
+      <c r="B151" s="10"/>
+      <c r="D151" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="9"/>
+      <c r="B152" s="10"/>
+      <c r="D152" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="9"/>
+      <c r="B153" s="10"/>
+      <c r="D153" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="9"/>
+      <c r="B154" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D154" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="10"/>
-      <c r="B152" s="4" t="s">
+    <row r="155" spans="1:4">
+      <c r="A155" s="9"/>
+      <c r="B155" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D155" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="10"/>
-      <c r="B153" s="5" t="s">
+    <row r="156" spans="1:4">
+      <c r="A156" s="9"/>
+      <c r="B156" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D156" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="6" t="s">
+    <row r="158" spans="1:4">
+      <c r="A158" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B158" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C158" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D158" s="2" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="6"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="6"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="6"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="6"/>
-      <c r="B160" s="6" t="s">
-        <v>267</v>
-      </c>
+      <c r="B160" s="6"/>
       <c r="C160" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="6"/>
-      <c r="B163" s="6"/>
+      <c r="B163" s="6" t="s">
+        <v>267</v>
+      </c>
       <c r="C163" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="6"/>
-      <c r="B165" s="6" t="s">
-        <v>278</v>
-      </c>
+      <c r="B165" s="6"/>
       <c r="C165" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="6"/>
-      <c r="B168" s="6"/>
+      <c r="B168" s="6" t="s">
+        <v>278</v>
+      </c>
       <c r="C168" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="6"/>
-      <c r="B170" s="1" t="s">
-        <v>281</v>
-      </c>
+      <c r="B170" s="6"/>
       <c r="C170" s="2" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="6"/>
-      <c r="B171" s="1" t="s">
-        <v>282</v>
-      </c>
+      <c r="B171" s="6"/>
       <c r="C171" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="6"/>
-      <c r="B172" s="6" t="s">
-        <v>283</v>
-      </c>
+      <c r="B172" s="6"/>
       <c r="C172" s="2" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="6"/>
-      <c r="B173" s="6"/>
+      <c r="B173" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="C173" s="2" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="6"/>
-      <c r="B174" s="6"/>
+      <c r="B174" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="C174" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="6"/>
-      <c r="B175" s="6"/>
+      <c r="B175" s="6" t="s">
+        <v>283</v>
+      </c>
       <c r="C175" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="6"/>
-      <c r="B176" s="1" t="s">
+      <c r="B176" s="6"/>
+      <c r="C176" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="6"/>
+      <c r="B177" s="6"/>
+      <c r="C177" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="6"/>
+      <c r="B178" s="6"/>
+      <c r="C178" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="6"/>
+      <c r="B179" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C179" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="D179" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="6" t="s">
+    <row r="182" spans="1:4">
+      <c r="A182" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B182" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="6"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="8"/>
-      <c r="B181" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="8"/>
-      <c r="B182" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>295</v>
@@ -4952,21 +4962,19 @@
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="8"/>
-      <c r="B183" s="1" t="s">
-        <v>293</v>
-      </c>
+      <c r="A183" s="6"/>
+      <c r="B183" s="6"/>
       <c r="C183" s="2" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="8"/>
+      <c r="A184" s="7"/>
       <c r="B184" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>295</v>
@@ -4975,24 +4983,46 @@
         <v>296</v>
       </c>
     </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="7"/>
+      <c r="B185" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="7"/>
+      <c r="B186" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="7"/>
+      <c r="B187" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A179:A184"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B53:B61"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B155:B159"/>
-    <mergeCell ref="B160:B164"/>
-    <mergeCell ref="B165:B169"/>
-    <mergeCell ref="B172:B175"/>
-    <mergeCell ref="A155:A176"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="A2:A153"/>
-    <mergeCell ref="B3:B4"/>
+  <mergeCells count="27">
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="B150:B153"/>
     <mergeCell ref="B84:B85"/>
     <mergeCell ref="B99:B103"/>
     <mergeCell ref="B108:B138"/>
@@ -5002,7 +5032,22 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="A182:A187"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B158:B162"/>
+    <mergeCell ref="B163:B167"/>
+    <mergeCell ref="B168:B172"/>
+    <mergeCell ref="B175:B178"/>
+    <mergeCell ref="A158:A179"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="A2:A156"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/client/doc/特效名替换备注.xlsx
+++ b/client/doc/特效名替换备注.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="327">
   <si>
     <t>原先变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1108,6 +1108,10 @@
   </si>
   <si>
     <t>ccbGoodsIcon3</t>
+  </si>
+  <si>
+    <t>ccbTenLotteryTip2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1180,8 +1184,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="867">
+  <cellStyleXfs count="869">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2055,6 +2061,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2076,11 +2085,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="867">
+  <cellStyles count="869">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2514,6 +2520,7 @@
     <cellStyle name="超链接" xfId="861" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="863" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="867" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2947,6 +2954,7 @@
     <cellStyle name="访问过的超链接" xfId="862" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="864" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="868" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3276,10 +3284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -3303,7 +3311,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>255</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3317,8 +3325,8 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3329,8 +3337,8 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="2" t="s">
         <v>97</v>
       </c>
@@ -3339,14 +3347,14 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3357,8 +3365,8 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2" t="s">
         <v>75</v>
       </c>
@@ -3367,8 +3375,8 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -3377,8 +3385,8 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3389,8 +3397,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="2" t="s">
         <v>79</v>
       </c>
@@ -3399,8 +3407,8 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3411,8 +3419,8 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="2" t="s">
         <v>83</v>
       </c>
@@ -3421,8 +3429,8 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="9"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="2" t="s">
         <v>85</v>
       </c>
@@ -3431,1562 +3439,1557 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="9"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="7"/>
       <c r="D14" s="2" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="9"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="7"/>
+      <c r="D15" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="10"/>
+      <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="2" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="10"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="2" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="10"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="9"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="2" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="10"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="9"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="2" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="10"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="9"/>
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="10"/>
+      <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="9"/>
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="10"/>
+      <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="9"/>
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="10"/>
+      <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="10"/>
+      <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="10"/>
+      <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="10"/>
+      <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="9"/>
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="10"/>
+      <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="9"/>
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="10"/>
+      <c r="B28" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="9"/>
-      <c r="B28" s="1" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="10"/>
+      <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="9"/>
-      <c r="B29" s="6" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="10"/>
+      <c r="B30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="9"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="2" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="10"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="9"/>
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="10"/>
+      <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="9"/>
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="10"/>
+      <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="9"/>
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="10"/>
+      <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="9"/>
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="10"/>
+      <c r="B35" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="9"/>
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="10"/>
+      <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="9"/>
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" s="10"/>
+      <c r="B37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="9"/>
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="10"/>
+      <c r="B38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="9"/>
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" s="10"/>
+      <c r="B39" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="9"/>
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" s="10"/>
+      <c r="B40" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="9"/>
-      <c r="B40" s="6" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" s="10"/>
+      <c r="B41" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="9"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="2" t="s">
+    <row r="42" spans="1:4">
+      <c r="A42" s="10"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="9"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="2" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" s="10"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="9"/>
-      <c r="B43" s="1" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" s="10"/>
+      <c r="B44" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="9"/>
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" s="10"/>
+      <c r="B45" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="9"/>
-      <c r="B45" s="1" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="10"/>
+      <c r="B46" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="9"/>
-      <c r="B46" s="1" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" s="10"/>
+      <c r="B47" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="9"/>
-      <c r="B47" s="6" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" s="10"/>
+      <c r="B48" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="9"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="2" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="10"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="9"/>
-      <c r="B49" s="1" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" s="10"/>
+      <c r="B50" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="9"/>
-      <c r="B50" s="1" t="s">
+    <row r="51" spans="1:4">
+      <c r="A51" s="10"/>
+      <c r="B51" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="9"/>
-      <c r="B51" s="1" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="10"/>
+      <c r="B52" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="9"/>
-      <c r="B52" s="1" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="10"/>
+      <c r="B53" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="9"/>
-      <c r="B53" s="8" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" s="10"/>
+      <c r="B54" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="9"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="2" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" s="10"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="9"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="2" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" s="10"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="9"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="2" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" s="10"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="9"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="2" t="s">
+    <row r="58" spans="1:4">
+      <c r="A58" s="10"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="9"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="2" t="s">
+    <row r="59" spans="1:4">
+      <c r="A59" s="10"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="9"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="2" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" s="10"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="9"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="2" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="10"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="9"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="2" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="10"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="9"/>
-      <c r="B62" s="1" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="10"/>
+      <c r="B63" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="9"/>
-      <c r="B63" s="6" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="10"/>
+      <c r="B64" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="9"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="2" t="s">
+    <row r="65" spans="1:4">
+      <c r="A65" s="10"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="9"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="2" t="s">
+    <row r="66" spans="1:4">
+      <c r="A66" s="10"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="9"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="2" t="s">
+    <row r="67" spans="1:4">
+      <c r="A67" s="10"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="9"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="2" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" s="10"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="9"/>
-      <c r="B68" s="6" t="s">
+    <row r="69" spans="1:4">
+      <c r="A69" s="10"/>
+      <c r="B69" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="9"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="2" t="s">
+    <row r="70" spans="1:4">
+      <c r="A70" s="10"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="9"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="2" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" s="10"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="9"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="2" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" s="10"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="9"/>
-      <c r="B72" s="6" t="s">
+    <row r="73" spans="1:4">
+      <c r="A73" s="10"/>
+      <c r="B73" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="9"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="2" t="s">
+    <row r="74" spans="1:4">
+      <c r="A74" s="10"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="9"/>
-      <c r="B74" s="1" t="s">
+    <row r="75" spans="1:4">
+      <c r="A75" s="10"/>
+      <c r="B75" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="9"/>
-      <c r="B75" s="1" t="s">
+    <row r="76" spans="1:4">
+      <c r="A76" s="10"/>
+      <c r="B76" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="9"/>
-      <c r="B76" s="1" t="s">
+    <row r="77" spans="1:4">
+      <c r="A77" s="10"/>
+      <c r="B77" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="9"/>
-      <c r="B77" s="6" t="s">
+    <row r="78" spans="1:4">
+      <c r="A78" s="10"/>
+      <c r="B78" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="9"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="2" t="s">
+    <row r="79" spans="1:4">
+      <c r="A79" s="10"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="9"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="2" t="s">
+    <row r="80" spans="1:4">
+      <c r="A80" s="10"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="9"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="2" t="s">
+    <row r="81" spans="1:4">
+      <c r="A81" s="10"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="9"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="2" t="s">
+    <row r="82" spans="1:4">
+      <c r="A82" s="10"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="9"/>
-      <c r="B82" s="1" t="s">
+    <row r="83" spans="1:4">
+      <c r="A83" s="10"/>
+      <c r="B83" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="9"/>
-      <c r="B83" s="1" t="s">
+    <row r="84" spans="1:4">
+      <c r="A84" s="10"/>
+      <c r="B84" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="9"/>
-      <c r="B84" s="6" t="s">
+    <row r="85" spans="1:4">
+      <c r="A85" s="10"/>
+      <c r="B85" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="9"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="2" t="s">
+    <row r="86" spans="1:4">
+      <c r="A86" s="10"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="9"/>
-      <c r="B86" s="1" t="s">
+    <row r="87" spans="1:4">
+      <c r="A87" s="10"/>
+      <c r="B87" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="9"/>
-      <c r="B87" s="1" t="s">
+    <row r="88" spans="1:4">
+      <c r="A88" s="10"/>
+      <c r="B88" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="9"/>
-      <c r="B88" s="1" t="s">
+    <row r="89" spans="1:4">
+      <c r="A89" s="10"/>
+      <c r="B89" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="9"/>
-      <c r="B89" s="1" t="s">
+    <row r="90" spans="1:4">
+      <c r="A90" s="10"/>
+      <c r="B90" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="9"/>
-      <c r="B90" s="1" t="s">
+    <row r="91" spans="1:4">
+      <c r="A91" s="10"/>
+      <c r="B91" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="9"/>
-      <c r="B91" s="1" t="s">
+    <row r="92" spans="1:4">
+      <c r="A92" s="10"/>
+      <c r="B92" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="9"/>
-      <c r="B92" s="1" t="s">
+    <row r="93" spans="1:4">
+      <c r="A93" s="10"/>
+      <c r="B93" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="9"/>
-      <c r="C93" s="2" t="s">
+    <row r="94" spans="1:4">
+      <c r="A94" s="10"/>
+      <c r="C94" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="9"/>
-      <c r="C94" s="2" t="s">
+    <row r="95" spans="1:4">
+      <c r="A95" s="10"/>
+      <c r="C95" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="9"/>
-      <c r="C95" s="2" t="s">
+    <row r="96" spans="1:4">
+      <c r="A96" s="10"/>
+      <c r="C96" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="9"/>
-      <c r="B96" s="1" t="s">
+    <row r="97" spans="1:4">
+      <c r="A97" s="10"/>
+      <c r="B97" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="9"/>
-      <c r="B97" s="1" t="s">
+    <row r="98" spans="1:4">
+      <c r="A98" s="10"/>
+      <c r="B98" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="9"/>
-      <c r="B98" s="1" t="s">
+    <row r="99" spans="1:4">
+      <c r="A99" s="10"/>
+      <c r="B99" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="9"/>
-      <c r="B99" s="6" t="s">
+    <row r="100" spans="1:4">
+      <c r="A100" s="10"/>
+      <c r="B100" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="9"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="2" t="s">
+    <row r="101" spans="1:4">
+      <c r="A101" s="10"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="9"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="2" t="s">
+    <row r="102" spans="1:4">
+      <c r="A102" s="10"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="9"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="2" t="s">
+    <row r="103" spans="1:4">
+      <c r="A103" s="10"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="9"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="2" t="s">
+    <row r="104" spans="1:4">
+      <c r="A104" s="10"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="9"/>
-      <c r="B104" s="1" t="s">
+    <row r="105" spans="1:4">
+      <c r="A105" s="10"/>
+      <c r="B105" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="9"/>
-      <c r="B105" s="1" t="s">
+    <row r="106" spans="1:4">
+      <c r="A106" s="10"/>
+      <c r="B106" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="9"/>
-      <c r="B106" s="1" t="s">
+    <row r="107" spans="1:4">
+      <c r="A107" s="10"/>
+      <c r="B107" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="9"/>
-      <c r="B107" s="1" t="s">
+    <row r="108" spans="1:4">
+      <c r="A108" s="10"/>
+      <c r="B108" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="9"/>
-      <c r="B108" s="6" t="s">
+    <row r="109" spans="1:4">
+      <c r="A109" s="10"/>
+      <c r="B109" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="9"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="2" t="s">
+    <row r="110" spans="1:4">
+      <c r="A110" s="10"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="9"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="2" t="s">
+    <row r="111" spans="1:4">
+      <c r="A111" s="10"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="9"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="2" t="s">
+    <row r="112" spans="1:4">
+      <c r="A112" s="10"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="9"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="2" t="s">
+    <row r="113" spans="1:4">
+      <c r="A113" s="10"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="9"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="2" t="s">
+    <row r="114" spans="1:4">
+      <c r="A114" s="10"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="9"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="2" t="s">
+    <row r="115" spans="1:4">
+      <c r="A115" s="10"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="9"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="2" t="s">
+    <row r="116" spans="1:4">
+      <c r="A116" s="10"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="9"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="2" t="s">
+    <row r="117" spans="1:4">
+      <c r="A117" s="10"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="9"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="2" t="s">
+    <row r="118" spans="1:4">
+      <c r="A118" s="10"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="9"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="2" t="s">
+    <row r="119" spans="1:4">
+      <c r="A119" s="10"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="9"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="2" t="s">
+    <row r="120" spans="1:4">
+      <c r="A120" s="10"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="9"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="2" t="s">
+    <row r="121" spans="1:4">
+      <c r="A121" s="10"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="9"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="2" t="s">
+    <row r="122" spans="1:4">
+      <c r="A122" s="10"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="9"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="2" t="s">
+    <row r="123" spans="1:4">
+      <c r="A123" s="10"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="9"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="2" t="s">
+    <row r="124" spans="1:4">
+      <c r="A124" s="10"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="9"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="2" t="s">
+    <row r="125" spans="1:4">
+      <c r="A125" s="10"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="9"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="2" t="s">
+    <row r="126" spans="1:4">
+      <c r="A126" s="10"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D126" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="9"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="2" t="s">
+    <row r="127" spans="1:4">
+      <c r="A127" s="10"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D127" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="9"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="2" t="s">
+    <row r="128" spans="1:4">
+      <c r="A128" s="10"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D128" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="9"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="2" t="s">
+    <row r="129" spans="1:4">
+      <c r="A129" s="10"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="9"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="2" t="s">
+    <row r="130" spans="1:4">
+      <c r="A130" s="10"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D130" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="9"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="2" t="s">
+    <row r="131" spans="1:4">
+      <c r="A131" s="10"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D131" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="9"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="2" t="s">
+    <row r="132" spans="1:4">
+      <c r="A132" s="10"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D132" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="9"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="2" t="s">
+    <row r="133" spans="1:4">
+      <c r="A133" s="10"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="9"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="2" t="s">
+    <row r="134" spans="1:4">
+      <c r="A134" s="10"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="9"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="2" t="s">
+    <row r="135" spans="1:4">
+      <c r="A135" s="10"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="9"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="2" t="s">
+    <row r="136" spans="1:4">
+      <c r="A136" s="10"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D136" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="9"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="2" t="s">
+    <row r="137" spans="1:4">
+      <c r="A137" s="10"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D137" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="9"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="2" t="s">
+    <row r="138" spans="1:4">
+      <c r="A138" s="10"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D138" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="9"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="2" t="s">
+    <row r="139" spans="1:4">
+      <c r="A139" s="10"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D139" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="9"/>
-      <c r="B139" s="3" t="s">
+    <row r="140" spans="1:4">
+      <c r="A140" s="10"/>
+      <c r="B140" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C140" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D140" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="9"/>
-      <c r="B140" s="10" t="s">
+    <row r="141" spans="1:4">
+      <c r="A141" s="10"/>
+      <c r="B141" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C141" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D141" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="9"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="2" t="s">
+    <row r="142" spans="1:4">
+      <c r="A142" s="10"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D142" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="9"/>
-      <c r="B142" s="3" t="s">
+    <row r="143" spans="1:4">
+      <c r="A143" s="10"/>
+      <c r="B143" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="9"/>
-      <c r="B143" s="10" t="s">
+    <row r="144" spans="1:4">
+      <c r="A144" s="10"/>
+      <c r="B144" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D144" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="9"/>
-      <c r="B144" s="10"/>
-      <c r="D144" s="2" t="s">
+    <row r="145" spans="1:4">
+      <c r="A145" s="10"/>
+      <c r="B145" s="6"/>
+      <c r="D145" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="9"/>
-      <c r="B145" s="10"/>
-      <c r="D145" s="2" t="s">
+    <row r="146" spans="1:4">
+      <c r="A146" s="10"/>
+      <c r="B146" s="6"/>
+      <c r="D146" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="9"/>
-      <c r="B146" s="10"/>
-      <c r="D146" s="2" t="s">
+    <row r="147" spans="1:4">
+      <c r="A147" s="10"/>
+      <c r="B147" s="6"/>
+      <c r="D147" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="9"/>
-      <c r="B147" s="10"/>
-      <c r="D147" s="2" t="s">
+    <row r="148" spans="1:4">
+      <c r="A148" s="10"/>
+      <c r="B148" s="6"/>
+      <c r="D148" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="9"/>
-      <c r="B148" s="4" t="s">
+    <row r="149" spans="1:4">
+      <c r="A149" s="10"/>
+      <c r="B149" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D149" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="9"/>
-      <c r="B149" s="4" t="s">
+    <row r="150" spans="1:4">
+      <c r="A150" s="10"/>
+      <c r="B150" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D150" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="9"/>
-      <c r="B150" s="10" t="s">
+    <row r="151" spans="1:4">
+      <c r="A151" s="10"/>
+      <c r="B151" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C151" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D151" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="9"/>
-      <c r="B151" s="10"/>
-      <c r="D151" s="2" t="s">
+    <row r="152" spans="1:4">
+      <c r="A152" s="10"/>
+      <c r="B152" s="6"/>
+      <c r="D152" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="9"/>
-      <c r="B152" s="10"/>
-      <c r="D152" s="2" t="s">
+    <row r="153" spans="1:4">
+      <c r="A153" s="10"/>
+      <c r="B153" s="6"/>
+      <c r="D153" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="9"/>
-      <c r="B153" s="10"/>
-      <c r="D153" s="2" t="s">
+    <row r="154" spans="1:4">
+      <c r="A154" s="10"/>
+      <c r="B154" s="6"/>
+      <c r="D154" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="9"/>
-      <c r="B154" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="9"/>
+      <c r="A155" s="10"/>
       <c r="B155" s="4" t="s">
         <v>315</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="10"/>
+      <c r="B156" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="9"/>
-      <c r="B156" s="5" t="s">
+    <row r="157" spans="1:4">
+      <c r="A157" s="10"/>
+      <c r="B157" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D157" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="6" t="s">
+    <row r="159" spans="1:4">
+      <c r="A159" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B159" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C159" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D159" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="6"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="2" t="s">
+    <row r="160" spans="1:4">
+      <c r="A160" s="7"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D160" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="6"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="2" t="s">
+    <row r="161" spans="1:4">
+      <c r="A161" s="7"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D161" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="6"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="2" t="s">
+    <row r="162" spans="1:4">
+      <c r="A162" s="7"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D162" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="6"/>
-      <c r="B162" s="6"/>
-      <c r="C162" s="2" t="s">
+    <row r="163" spans="1:4">
+      <c r="A163" s="7"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D163" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="6"/>
-      <c r="B163" s="6" t="s">
+    <row r="164" spans="1:4">
+      <c r="A164" s="7"/>
+      <c r="B164" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C164" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D164" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="6"/>
-      <c r="B164" s="6"/>
-      <c r="C164" s="2" t="s">
+    <row r="165" spans="1:4">
+      <c r="A165" s="7"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D165" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="6"/>
-      <c r="B165" s="6"/>
-      <c r="C165" s="2" t="s">
+    <row r="166" spans="1:4">
+      <c r="A166" s="7"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D166" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="6"/>
-      <c r="B166" s="6"/>
-      <c r="C166" s="2" t="s">
+    <row r="167" spans="1:4">
+      <c r="A167" s="7"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D167" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="6"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="2" t="s">
+    <row r="168" spans="1:4">
+      <c r="A168" s="7"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D168" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="6"/>
-      <c r="B168" s="6" t="s">
+    <row r="169" spans="1:4">
+      <c r="A169" s="7"/>
+      <c r="B169" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C169" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D169" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="6"/>
-      <c r="B169" s="6"/>
-      <c r="C169" s="2" t="s">
+    <row r="170" spans="1:4">
+      <c r="A170" s="7"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D170" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="6"/>
-      <c r="B170" s="6"/>
-      <c r="C170" s="2" t="s">
+    <row r="171" spans="1:4">
+      <c r="A171" s="7"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D171" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="6"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="2" t="s">
+    <row r="172" spans="1:4">
+      <c r="A172" s="7"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D172" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="6"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="2" t="s">
+    <row r="173" spans="1:4">
+      <c r="A173" s="7"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D173" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="6"/>
-      <c r="B173" s="1" t="s">
+    <row r="174" spans="1:4">
+      <c r="A174" s="7"/>
+      <c r="B174" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C174" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="6"/>
-      <c r="B174" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="6"/>
-      <c r="B175" s="6" t="s">
+      <c r="A175" s="7"/>
+      <c r="B175" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="7"/>
+      <c r="B176" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C176" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D176" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="6"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="2" t="s">
+    <row r="177" spans="1:4">
+      <c r="A177" s="7"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="D177" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="6"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="2" t="s">
+    <row r="178" spans="1:4">
+      <c r="A178" s="7"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D178" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="6"/>
-      <c r="B178" s="6"/>
-      <c r="C178" s="2" t="s">
+    <row r="179" spans="1:4">
+      <c r="A179" s="7"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D179" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="6"/>
-      <c r="B179" s="1" t="s">
+    <row r="180" spans="1:4">
+      <c r="A180" s="7"/>
+      <c r="B180" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C180" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D180" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="6" t="s">
+    <row r="183" spans="1:4">
+      <c r="A183" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B183" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C183" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D183" s="2" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="6"/>
-      <c r="B183" s="6"/>
-      <c r="C183" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="7"/>
-      <c r="B184" s="1" t="s">
+      <c r="B184" s="7"/>
+      <c r="C184" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="8"/>
+      <c r="B185" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="7"/>
-      <c r="B185" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>295</v>
@@ -4996,9 +4999,9 @@
       </c>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="7"/>
+      <c r="A186" s="8"/>
       <c r="B186" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>295</v>
@@ -5008,9 +5011,9 @@
       </c>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="7"/>
+      <c r="A187" s="8"/>
       <c r="B187" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>295</v>
@@ -5019,35 +5022,47 @@
         <v>296</v>
       </c>
     </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="8"/>
+      <c r="B188" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B143:B147"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="B108:B138"/>
-    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="A183:A188"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B54:B62"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B159:B163"/>
+    <mergeCell ref="B164:B168"/>
+    <mergeCell ref="B169:B173"/>
+    <mergeCell ref="B176:B179"/>
+    <mergeCell ref="A159:A180"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="A2:A157"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A182:A187"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B53:B61"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B158:B162"/>
-    <mergeCell ref="B163:B167"/>
-    <mergeCell ref="B168:B172"/>
-    <mergeCell ref="B175:B178"/>
-    <mergeCell ref="A158:A179"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="A2:A156"/>
-    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B144:B148"/>
+    <mergeCell ref="B151:B154"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="B109:B139"/>
+    <mergeCell ref="B141:B142"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/client/doc/特效名替换备注.xlsx
+++ b/client/doc/特效名替换备注.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="329">
   <si>
     <t>原先变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1111,6 +1111,14 @@
   </si>
   <si>
     <t>ccbTenLotteryTip2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiEffect106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccbFnUpdatePassiveSKill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1184,7 +1192,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="869">
+  <cellStyleXfs count="873">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2054,8 +2062,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2085,8 +2097,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="869">
+  <cellStyles count="873">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2521,6 +2536,8 @@
     <cellStyle name="超链接" xfId="863" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="865" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="871" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2955,6 +2972,8 @@
     <cellStyle name="访问过的超链接" xfId="864" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="866" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="872" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3284,10 +3303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="F156" sqref="F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -4585,7 +4604,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="10"/>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C141" s="2" t="s">
@@ -4597,7 +4616,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="10"/>
-      <c r="B142" s="6"/>
+      <c r="B142" s="11"/>
       <c r="C142" s="2" t="s">
         <v>252</v>
       </c>
@@ -4613,7 +4632,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="10"/>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="11" t="s">
         <v>302</v>
       </c>
       <c r="D144" s="2" t="s">
@@ -4622,28 +4641,28 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="10"/>
-      <c r="B145" s="6"/>
+      <c r="B145" s="11"/>
       <c r="D145" s="2" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="10"/>
-      <c r="B146" s="6"/>
+      <c r="B146" s="11"/>
       <c r="D146" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="10"/>
-      <c r="B147" s="6"/>
+      <c r="B147" s="11"/>
       <c r="D147" s="2" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="10"/>
-      <c r="B148" s="6"/>
+      <c r="B148" s="11"/>
       <c r="D148" s="2" t="s">
         <v>307</v>
       </c>
@@ -4668,7 +4687,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="10"/>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="11" t="s">
         <v>314</v>
       </c>
       <c r="C151" s="2" t="s">
@@ -4680,21 +4699,21 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="10"/>
-      <c r="B152" s="6"/>
+      <c r="B152" s="11"/>
       <c r="D152" s="2" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="10"/>
-      <c r="B153" s="6"/>
+      <c r="B153" s="11"/>
       <c r="D153" s="2" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="10"/>
-      <c r="B154" s="6"/>
+      <c r="B154" s="11"/>
       <c r="D154" s="2" t="s">
         <v>325</v>
       </c>
@@ -4719,190 +4738,187 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="10"/>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="6" t="s">
         <v>321</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="7" t="s">
+    <row r="158" spans="1:4">
+      <c r="A158" s="10"/>
+      <c r="B158" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B160" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C160" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D160" s="2" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="7"/>
-      <c r="B160" s="7"/>
-      <c r="C160" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="7"/>
-      <c r="B164" s="7" t="s">
-        <v>267</v>
-      </c>
+      <c r="B164" s="7"/>
       <c r="C164" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
+      <c r="B165" s="7" t="s">
+        <v>267</v>
+      </c>
       <c r="C165" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="7"/>
-      <c r="B169" s="7" t="s">
-        <v>278</v>
-      </c>
+      <c r="B169" s="7"/>
       <c r="C169" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="7"/>
-      <c r="B170" s="7"/>
+      <c r="B170" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="C170" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="7"/>
-      <c r="B174" s="1" t="s">
-        <v>281</v>
-      </c>
+      <c r="B174" s="7"/>
       <c r="C174" s="2" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="7"/>
       <c r="B175" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>280</v>
@@ -4910,98 +4926,98 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="7"/>
-      <c r="B176" s="7" t="s">
-        <v>283</v>
+      <c r="B176" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="7"/>
-      <c r="B177" s="7"/>
+      <c r="B177" s="7" t="s">
+        <v>283</v>
+      </c>
       <c r="C177" s="2" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="2" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="7"/>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="7"/>
+      <c r="C180" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="7"/>
+      <c r="B181" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C181" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D181" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="7" t="s">
+    <row r="184" spans="1:4">
+      <c r="A184" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B184" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C184" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D184" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="7"/>
-      <c r="B184" s="7"/>
-      <c r="C184" s="2" t="s">
+    <row r="185" spans="1:4">
+      <c r="A185" s="7"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D185" s="2" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="8"/>
-      <c r="B185" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="8"/>
       <c r="B186" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>295</v>
@@ -5013,7 +5029,7 @@
     <row r="187" spans="1:4">
       <c r="A187" s="8"/>
       <c r="B187" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>295</v>
@@ -5025,7 +5041,7 @@
     <row r="188" spans="1:4">
       <c r="A188" s="8"/>
       <c r="B188" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>295</v>
@@ -5034,35 +5050,47 @@
         <v>296</v>
       </c>
     </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="8"/>
+      <c r="B189" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A183:A188"/>
+    <mergeCell ref="B144:B148"/>
+    <mergeCell ref="B151:B154"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="B109:B139"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A184:A189"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B54:B62"/>
     <mergeCell ref="B64:B68"/>
     <mergeCell ref="B69:B72"/>
     <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B159:B163"/>
-    <mergeCell ref="B164:B168"/>
-    <mergeCell ref="B169:B173"/>
-    <mergeCell ref="B176:B179"/>
-    <mergeCell ref="A159:A180"/>
+    <mergeCell ref="B160:B164"/>
+    <mergeCell ref="B165:B169"/>
+    <mergeCell ref="B170:B174"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="A160:A181"/>
     <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="A2:A157"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="A2:A158"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B144:B148"/>
-    <mergeCell ref="B151:B154"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="B109:B139"/>
-    <mergeCell ref="B141:B142"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/client/doc/特效名替换备注.xlsx
+++ b/client/doc/特效名替换备注.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="331">
   <si>
     <t>原先变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1119,6 +1119,14 @@
   </si>
   <si>
     <t>ccbFnUpdatePassiveSKill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiEffect104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccbTitleNode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1192,7 +1200,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="873">
+  <cellStyleXfs count="879">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2066,13 +2074,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2097,11 +2117,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="873">
+  <cellStyles count="879">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2538,6 +2555,9 @@
     <cellStyle name="超链接" xfId="867" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="869" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="871" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="873" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="875" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="877" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2974,6 +2994,9 @@
     <cellStyle name="访问过的超链接" xfId="868" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="870" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="872" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="874" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="876" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="878" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3303,10 +3326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D189"/>
+  <dimension ref="A1:D190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="F156" sqref="F156"/>
+      <selection activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -3330,7 +3353,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>255</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3344,8 +3367,8 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="10"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3356,8 +3379,8 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="2" t="s">
         <v>97</v>
       </c>
@@ -3366,14 +3389,14 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3384,8 +3407,8 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="2" t="s">
         <v>75</v>
       </c>
@@ -3394,8 +3417,8 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="10"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
@@ -3404,8 +3427,8 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3416,8 +3439,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="2" t="s">
         <v>79</v>
       </c>
@@ -3426,8 +3449,8 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="10"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3438,8 +3461,8 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="10"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="2" t="s">
         <v>83</v>
       </c>
@@ -3448,8 +3471,8 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="10"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="2" t="s">
         <v>85</v>
       </c>
@@ -3458,22 +3481,22 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="10"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="9"/>
       <c r="D14" s="2" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="10"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="9"/>
       <c r="D15" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="10"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -3484,8 +3507,8 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="2" t="s">
         <v>88</v>
       </c>
@@ -3494,8 +3517,8 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="10"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="2" t="s">
         <v>89</v>
       </c>
@@ -3504,8 +3527,8 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="10"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="2" t="s">
         <v>93</v>
       </c>
@@ -3514,8 +3537,8 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="10"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="2" t="s">
         <v>95</v>
       </c>
@@ -3524,62 +3547,62 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="10"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="10"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="10"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="10"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="10"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="10"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="10"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="10"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="10"/>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -3590,8 +3613,8 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="10"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>101</v>
       </c>
@@ -3600,7 +3623,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="10"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
@@ -3612,37 +3635,37 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="10"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="10"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="10"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="10"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="10"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="10"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="1" t="s">
         <v>28</v>
       </c>
@@ -3654,20 +3677,20 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="10"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="10"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="10"/>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -3678,8 +3701,8 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="10"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="2" t="s">
         <v>109</v>
       </c>
@@ -3688,8 +3711,8 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="10"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="2" t="s">
         <v>110</v>
       </c>
@@ -3698,32 +3721,32 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="10"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="10"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="10"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="10"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="10"/>
-      <c r="B48" s="7" t="s">
+      <c r="A48" s="12"/>
+      <c r="B48" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -3734,8 +3757,8 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="10"/>
-      <c r="B49" s="7"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="2" t="s">
         <v>99</v>
       </c>
@@ -3744,32 +3767,32 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="10"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="10"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="10"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="10"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="10"/>
-      <c r="B54" s="9" t="s">
+      <c r="A54" s="12"/>
+      <c r="B54" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -3780,8 +3803,8 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="10"/>
-      <c r="B55" s="9"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="11"/>
       <c r="C55" s="2" t="s">
         <v>116</v>
       </c>
@@ -3790,8 +3813,8 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="10"/>
-      <c r="B56" s="9"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="11"/>
       <c r="C56" s="2" t="s">
         <v>118</v>
       </c>
@@ -3800,8 +3823,8 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="10"/>
-      <c r="B57" s="9"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
         <v>120</v>
       </c>
@@ -3810,8 +3833,8 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="10"/>
-      <c r="B58" s="9"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="11"/>
       <c r="C58" s="2" t="s">
         <v>122</v>
       </c>
@@ -3820,8 +3843,8 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="10"/>
-      <c r="B59" s="9"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="11"/>
       <c r="C59" s="2" t="s">
         <v>124</v>
       </c>
@@ -3830,8 +3853,8 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="10"/>
-      <c r="B60" s="9"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="11"/>
       <c r="C60" s="2" t="s">
         <v>126</v>
       </c>
@@ -3840,8 +3863,8 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="10"/>
-      <c r="B61" s="9"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="11"/>
       <c r="C61" s="2" t="s">
         <v>128</v>
       </c>
@@ -3850,8 +3873,8 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="10"/>
-      <c r="B62" s="9"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="11"/>
       <c r="C62" s="2" t="s">
         <v>130</v>
       </c>
@@ -3860,7 +3883,7 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="10"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="1" t="s">
         <v>42</v>
       </c>
@@ -3872,8 +3895,8 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="10"/>
-      <c r="B64" s="7" t="s">
+      <c r="A64" s="12"/>
+      <c r="B64" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -3884,8 +3907,8 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="10"/>
-      <c r="B65" s="7"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="9"/>
       <c r="C65" s="2" t="s">
         <v>134</v>
       </c>
@@ -3894,8 +3917,8 @@
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="10"/>
-      <c r="B66" s="7"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="9"/>
       <c r="C66" s="2" t="s">
         <v>124</v>
       </c>
@@ -3904,8 +3927,8 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="10"/>
-      <c r="B67" s="7"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="9"/>
       <c r="C67" s="2" t="s">
         <v>128</v>
       </c>
@@ -3914,8 +3937,8 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="10"/>
-      <c r="B68" s="7"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="9"/>
       <c r="C68" s="2" t="s">
         <v>136</v>
       </c>
@@ -3924,8 +3947,8 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="10"/>
-      <c r="B69" s="7" t="s">
+      <c r="A69" s="12"/>
+      <c r="B69" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -3936,8 +3959,8 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="10"/>
-      <c r="B70" s="7"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="9"/>
       <c r="C70" s="2" t="s">
         <v>141</v>
       </c>
@@ -3946,8 +3969,8 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="10"/>
-      <c r="B71" s="7"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="2" t="s">
         <v>143</v>
       </c>
@@ -3956,8 +3979,8 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="10"/>
-      <c r="B72" s="7"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="9"/>
       <c r="C72" s="2" t="s">
         <v>145</v>
       </c>
@@ -3966,8 +3989,8 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="10"/>
-      <c r="B73" s="7" t="s">
+      <c r="A73" s="12"/>
+      <c r="B73" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -3978,8 +4001,8 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="10"/>
-      <c r="B74" s="7"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="9"/>
       <c r="C74" s="2" t="s">
         <v>149</v>
       </c>
@@ -3988,26 +4011,26 @@
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="10"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="10"/>
+      <c r="A76" s="12"/>
       <c r="B76" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="10"/>
+      <c r="A77" s="12"/>
       <c r="B77" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="10"/>
-      <c r="B78" s="7" t="s">
+      <c r="A78" s="12"/>
+      <c r="B78" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -4018,8 +4041,8 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="10"/>
-      <c r="B79" s="7"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="9"/>
       <c r="C79" s="2" t="s">
         <v>153</v>
       </c>
@@ -4028,8 +4051,8 @@
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="10"/>
-      <c r="B80" s="7"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="9"/>
       <c r="C80" s="2" t="s">
         <v>155</v>
       </c>
@@ -4038,8 +4061,8 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="10"/>
-      <c r="B81" s="7"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="9"/>
       <c r="C81" s="2" t="s">
         <v>95</v>
       </c>
@@ -4048,8 +4071,8 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="10"/>
-      <c r="B82" s="7"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="9"/>
       <c r="C82" s="2" t="s">
         <v>157</v>
       </c>
@@ -4058,13 +4081,13 @@
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="10"/>
+      <c r="A83" s="12"/>
       <c r="B83" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="10"/>
+      <c r="A84" s="12"/>
       <c r="B84" s="1" t="s">
         <v>51</v>
       </c>
@@ -4076,8 +4099,8 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="10"/>
-      <c r="B85" s="7" t="s">
+      <c r="A85" s="12"/>
+      <c r="B85" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -4088,8 +4111,8 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="10"/>
-      <c r="B86" s="7"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="9"/>
       <c r="C86" s="2" t="s">
         <v>164</v>
       </c>
@@ -4098,43 +4121,43 @@
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="10"/>
+      <c r="A87" s="12"/>
       <c r="B87" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="10"/>
+      <c r="A88" s="12"/>
       <c r="B88" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="10"/>
+      <c r="A89" s="12"/>
       <c r="B89" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="10"/>
+      <c r="A90" s="12"/>
       <c r="B90" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="10"/>
+      <c r="A91" s="12"/>
       <c r="B91" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="10"/>
+      <c r="A92" s="12"/>
       <c r="B92" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="10"/>
+      <c r="A93" s="12"/>
       <c r="B93" s="1" t="s">
         <v>59</v>
       </c>
@@ -4146,7 +4169,7 @@
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="10"/>
+      <c r="A94" s="12"/>
       <c r="C94" s="2" t="s">
         <v>168</v>
       </c>
@@ -4155,7 +4178,7 @@
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="10"/>
+      <c r="A95" s="12"/>
       <c r="C95" s="2" t="s">
         <v>170</v>
       </c>
@@ -4164,7 +4187,7 @@
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="10"/>
+      <c r="A96" s="12"/>
       <c r="C96" s="2" t="s">
         <v>172</v>
       </c>
@@ -4173,13 +4196,13 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="10"/>
+      <c r="A97" s="12"/>
       <c r="B97" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="10"/>
+      <c r="A98" s="12"/>
       <c r="B98" s="1" t="s">
         <v>61</v>
       </c>
@@ -4191,7 +4214,7 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="10"/>
+      <c r="A99" s="12"/>
       <c r="B99" s="1" t="s">
         <v>62</v>
       </c>
@@ -4203,8 +4226,8 @@
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="10"/>
-      <c r="B100" s="7" t="s">
+      <c r="A100" s="12"/>
+      <c r="B100" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -4215,8 +4238,8 @@
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="10"/>
-      <c r="B101" s="7"/>
+      <c r="A101" s="12"/>
+      <c r="B101" s="9"/>
       <c r="C101" s="2" t="s">
         <v>178</v>
       </c>
@@ -4225,8 +4248,8 @@
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="10"/>
-      <c r="B102" s="7"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="9"/>
       <c r="C102" s="2" t="s">
         <v>179</v>
       </c>
@@ -4235,8 +4258,8 @@
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="10"/>
-      <c r="B103" s="7"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="9"/>
       <c r="C103" s="2" t="s">
         <v>181</v>
       </c>
@@ -4245,8 +4268,8 @@
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="10"/>
-      <c r="B104" s="7"/>
+      <c r="A104" s="12"/>
+      <c r="B104" s="9"/>
       <c r="C104" s="2" t="s">
         <v>183</v>
       </c>
@@ -4255,32 +4278,32 @@
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="10"/>
+      <c r="A105" s="12"/>
       <c r="B105" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="10"/>
+      <c r="A106" s="12"/>
       <c r="B106" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="10"/>
+      <c r="A107" s="12"/>
       <c r="B107" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="10"/>
+      <c r="A108" s="12"/>
       <c r="B108" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="10"/>
-      <c r="B109" s="7" t="s">
+      <c r="A109" s="12"/>
+      <c r="B109" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -4291,8 +4314,8 @@
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="10"/>
-      <c r="B110" s="7"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="9"/>
       <c r="C110" s="2" t="s">
         <v>188</v>
       </c>
@@ -4301,8 +4324,8 @@
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="10"/>
-      <c r="B111" s="7"/>
+      <c r="A111" s="12"/>
+      <c r="B111" s="9"/>
       <c r="C111" s="2" t="s">
         <v>190</v>
       </c>
@@ -4311,8 +4334,8 @@
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="10"/>
-      <c r="B112" s="7"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="9"/>
       <c r="C112" s="2" t="s">
         <v>191</v>
       </c>
@@ -4321,8 +4344,8 @@
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="10"/>
-      <c r="B113" s="7"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="9"/>
       <c r="C113" s="2" t="s">
         <v>192</v>
       </c>
@@ -4331,8 +4354,8 @@
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="10"/>
-      <c r="B114" s="7"/>
+      <c r="A114" s="12"/>
+      <c r="B114" s="9"/>
       <c r="C114" s="2" t="s">
         <v>193</v>
       </c>
@@ -4341,8 +4364,8 @@
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="10"/>
-      <c r="B115" s="7"/>
+      <c r="A115" s="12"/>
+      <c r="B115" s="9"/>
       <c r="C115" s="2" t="s">
         <v>194</v>
       </c>
@@ -4351,8 +4374,8 @@
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="10"/>
-      <c r="B116" s="7"/>
+      <c r="A116" s="12"/>
+      <c r="B116" s="9"/>
       <c r="C116" s="2" t="s">
         <v>195</v>
       </c>
@@ -4361,8 +4384,8 @@
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="10"/>
-      <c r="B117" s="7"/>
+      <c r="A117" s="12"/>
+      <c r="B117" s="9"/>
       <c r="C117" s="2" t="s">
         <v>196</v>
       </c>
@@ -4371,8 +4394,8 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="10"/>
-      <c r="B118" s="7"/>
+      <c r="A118" s="12"/>
+      <c r="B118" s="9"/>
       <c r="C118" s="2" t="s">
         <v>197</v>
       </c>
@@ -4381,8 +4404,8 @@
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="10"/>
-      <c r="B119" s="7"/>
+      <c r="A119" s="12"/>
+      <c r="B119" s="9"/>
       <c r="C119" s="2" t="s">
         <v>198</v>
       </c>
@@ -4391,8 +4414,8 @@
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="10"/>
-      <c r="B120" s="7"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="9"/>
       <c r="C120" s="2" t="s">
         <v>208</v>
       </c>
@@ -4401,8 +4424,8 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="10"/>
-      <c r="B121" s="7"/>
+      <c r="A121" s="12"/>
+      <c r="B121" s="9"/>
       <c r="C121" s="2" t="s">
         <v>209</v>
       </c>
@@ -4411,8 +4434,8 @@
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="10"/>
-      <c r="B122" s="7"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="9"/>
       <c r="C122" s="2" t="s">
         <v>210</v>
       </c>
@@ -4421,8 +4444,8 @@
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="10"/>
-      <c r="B123" s="7"/>
+      <c r="A123" s="12"/>
+      <c r="B123" s="9"/>
       <c r="C123" s="2" t="s">
         <v>211</v>
       </c>
@@ -4431,8 +4454,8 @@
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="10"/>
-      <c r="B124" s="7"/>
+      <c r="A124" s="12"/>
+      <c r="B124" s="9"/>
       <c r="C124" s="2" t="s">
         <v>212</v>
       </c>
@@ -4441,8 +4464,8 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="10"/>
-      <c r="B125" s="7"/>
+      <c r="A125" s="12"/>
+      <c r="B125" s="9"/>
       <c r="C125" s="2" t="s">
         <v>213</v>
       </c>
@@ -4451,8 +4474,8 @@
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="10"/>
-      <c r="B126" s="7"/>
+      <c r="A126" s="12"/>
+      <c r="B126" s="9"/>
       <c r="C126" s="2" t="s">
         <v>214</v>
       </c>
@@ -4461,8 +4484,8 @@
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="10"/>
-      <c r="B127" s="7"/>
+      <c r="A127" s="12"/>
+      <c r="B127" s="9"/>
       <c r="C127" s="2" t="s">
         <v>215</v>
       </c>
@@ -4471,8 +4494,8 @@
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="10"/>
-      <c r="B128" s="7"/>
+      <c r="A128" s="12"/>
+      <c r="B128" s="9"/>
       <c r="C128" s="2" t="s">
         <v>216</v>
       </c>
@@ -4481,8 +4504,8 @@
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="10"/>
-      <c r="B129" s="7"/>
+      <c r="A129" s="12"/>
+      <c r="B129" s="9"/>
       <c r="C129" s="2" t="s">
         <v>217</v>
       </c>
@@ -4491,8 +4514,8 @@
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="10"/>
-      <c r="B130" s="7"/>
+      <c r="A130" s="12"/>
+      <c r="B130" s="9"/>
       <c r="C130" s="2" t="s">
         <v>228</v>
       </c>
@@ -4501,8 +4524,8 @@
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="10"/>
-      <c r="B131" s="7"/>
+      <c r="A131" s="12"/>
+      <c r="B131" s="9"/>
       <c r="C131" s="2" t="s">
         <v>229</v>
       </c>
@@ -4511,8 +4534,8 @@
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="10"/>
-      <c r="B132" s="7"/>
+      <c r="A132" s="12"/>
+      <c r="B132" s="9"/>
       <c r="C132" s="2" t="s">
         <v>230</v>
       </c>
@@ -4521,8 +4544,8 @@
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="10"/>
-      <c r="B133" s="7"/>
+      <c r="A133" s="12"/>
+      <c r="B133" s="9"/>
       <c r="C133" s="2" t="s">
         <v>231</v>
       </c>
@@ -4531,8 +4554,8 @@
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="10"/>
-      <c r="B134" s="7"/>
+      <c r="A134" s="12"/>
+      <c r="B134" s="9"/>
       <c r="C134" s="2" t="s">
         <v>232</v>
       </c>
@@ -4541,8 +4564,8 @@
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="10"/>
-      <c r="B135" s="7"/>
+      <c r="A135" s="12"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="2" t="s">
         <v>233</v>
       </c>
@@ -4551,8 +4574,8 @@
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="10"/>
-      <c r="B136" s="7"/>
+      <c r="A136" s="12"/>
+      <c r="B136" s="9"/>
       <c r="C136" s="2" t="s">
         <v>234</v>
       </c>
@@ -4561,8 +4584,8 @@
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="10"/>
-      <c r="B137" s="7"/>
+      <c r="A137" s="12"/>
+      <c r="B137" s="9"/>
       <c r="C137" s="2" t="s">
         <v>235</v>
       </c>
@@ -4571,8 +4594,8 @@
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="10"/>
-      <c r="B138" s="7"/>
+      <c r="A138" s="12"/>
+      <c r="B138" s="9"/>
       <c r="C138" s="2" t="s">
         <v>236</v>
       </c>
@@ -4581,8 +4604,8 @@
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="10"/>
-      <c r="B139" s="7"/>
+      <c r="A139" s="12"/>
+      <c r="B139" s="9"/>
       <c r="C139" s="2" t="s">
         <v>237</v>
       </c>
@@ -4591,7 +4614,7 @@
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="10"/>
+      <c r="A140" s="12"/>
       <c r="B140" s="3" t="s">
         <v>69</v>
       </c>
@@ -4603,8 +4626,8 @@
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="10"/>
-      <c r="B141" s="11" t="s">
+      <c r="A141" s="12"/>
+      <c r="B141" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C141" s="2" t="s">
@@ -4615,8 +4638,8 @@
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="10"/>
-      <c r="B142" s="11"/>
+      <c r="A142" s="12"/>
+      <c r="B142" s="8"/>
       <c r="C142" s="2" t="s">
         <v>252</v>
       </c>
@@ -4625,14 +4648,14 @@
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="10"/>
+      <c r="A143" s="12"/>
       <c r="B143" s="3" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="10"/>
-      <c r="B144" s="11" t="s">
+      <c r="A144" s="12"/>
+      <c r="B144" s="8" t="s">
         <v>302</v>
       </c>
       <c r="D144" s="2" t="s">
@@ -4640,35 +4663,35 @@
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="10"/>
-      <c r="B145" s="11"/>
+      <c r="A145" s="12"/>
+      <c r="B145" s="8"/>
       <c r="D145" s="2" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="10"/>
-      <c r="B146" s="11"/>
+      <c r="A146" s="12"/>
+      <c r="B146" s="8"/>
       <c r="D146" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="10"/>
-      <c r="B147" s="11"/>
+      <c r="A147" s="12"/>
+      <c r="B147" s="8"/>
       <c r="D147" s="2" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="10"/>
-      <c r="B148" s="11"/>
+      <c r="A148" s="12"/>
+      <c r="B148" s="8"/>
       <c r="D148" s="2" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="10"/>
+      <c r="A149" s="12"/>
       <c r="B149" s="4" t="s">
         <v>311</v>
       </c>
@@ -4677,7 +4700,7 @@
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="10"/>
+      <c r="A150" s="12"/>
       <c r="B150" s="4" t="s">
         <v>313</v>
       </c>
@@ -4686,8 +4709,8 @@
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="10"/>
-      <c r="B151" s="11" t="s">
+      <c r="A151" s="12"/>
+      <c r="B151" s="8" t="s">
         <v>314</v>
       </c>
       <c r="C151" s="2" t="s">
@@ -4698,28 +4721,28 @@
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="10"/>
-      <c r="B152" s="11"/>
+      <c r="A152" s="12"/>
+      <c r="B152" s="8"/>
       <c r="D152" s="2" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="10"/>
-      <c r="B153" s="11"/>
+      <c r="A153" s="12"/>
+      <c r="B153" s="8"/>
       <c r="D153" s="2" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="10"/>
-      <c r="B154" s="11"/>
+      <c r="A154" s="12"/>
+      <c r="B154" s="8"/>
       <c r="D154" s="2" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="10"/>
+      <c r="A155" s="12"/>
       <c r="B155" s="4" t="s">
         <v>315</v>
       </c>
@@ -4728,7 +4751,7 @@
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="10"/>
+      <c r="A156" s="12"/>
       <c r="B156" s="4" t="s">
         <v>315</v>
       </c>
@@ -4737,7 +4760,7 @@
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="10"/>
+      <c r="A157" s="12"/>
       <c r="B157" s="6" t="s">
         <v>321</v>
       </c>
@@ -4746,290 +4769,287 @@
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="10"/>
-      <c r="B158" s="5" t="s">
+      <c r="A158" s="12"/>
+      <c r="B158" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="12"/>
+      <c r="B159" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D159" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="7" t="s">
+    <row r="161" spans="1:4">
+      <c r="A161" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B161" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C161" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D161" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="7"/>
-      <c r="B161" s="7"/>
-      <c r="C161" s="2" t="s">
+    <row r="162" spans="1:4">
+      <c r="A162" s="9"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D162" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
-      <c r="C162" s="2" t="s">
+    <row r="163" spans="1:4">
+      <c r="A163" s="9"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D163" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="7"/>
-      <c r="B163" s="7"/>
-      <c r="C163" s="2" t="s">
+    <row r="164" spans="1:4">
+      <c r="A164" s="9"/>
+      <c r="B164" s="9"/>
+      <c r="C164" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D164" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
-      <c r="C164" s="2" t="s">
+    <row r="165" spans="1:4">
+      <c r="A165" s="9"/>
+      <c r="B165" s="9"/>
+      <c r="C165" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D165" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="7"/>
-      <c r="B165" s="7" t="s">
+    <row r="166" spans="1:4">
+      <c r="A166" s="9"/>
+      <c r="B166" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C166" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D166" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
-      <c r="C166" s="2" t="s">
+    <row r="167" spans="1:4">
+      <c r="A167" s="9"/>
+      <c r="B167" s="9"/>
+      <c r="C167" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D167" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
-      <c r="C167" s="2" t="s">
+    <row r="168" spans="1:4">
+      <c r="A168" s="9"/>
+      <c r="B168" s="9"/>
+      <c r="C168" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D168" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="7"/>
-      <c r="B168" s="7"/>
-      <c r="C168" s="2" t="s">
+    <row r="169" spans="1:4">
+      <c r="A169" s="9"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D169" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="7"/>
-      <c r="B169" s="7"/>
-      <c r="C169" s="2" t="s">
+    <row r="170" spans="1:4">
+      <c r="A170" s="9"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D170" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="7"/>
-      <c r="B170" s="7" t="s">
+    <row r="171" spans="1:4">
+      <c r="A171" s="9"/>
+      <c r="B171" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C171" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D171" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="7"/>
-      <c r="B171" s="7"/>
-      <c r="C171" s="2" t="s">
+    <row r="172" spans="1:4">
+      <c r="A172" s="9"/>
+      <c r="B172" s="9"/>
+      <c r="C172" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D172" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="7"/>
-      <c r="B172" s="7"/>
-      <c r="C172" s="2" t="s">
+    <row r="173" spans="1:4">
+      <c r="A173" s="9"/>
+      <c r="B173" s="9"/>
+      <c r="C173" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D173" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="7"/>
-      <c r="B173" s="7"/>
-      <c r="C173" s="2" t="s">
+    <row r="174" spans="1:4">
+      <c r="A174" s="9"/>
+      <c r="B174" s="9"/>
+      <c r="C174" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="7"/>
-      <c r="B174" s="7"/>
-      <c r="C174" s="2" t="s">
+    <row r="175" spans="1:4">
+      <c r="A175" s="9"/>
+      <c r="B175" s="9"/>
+      <c r="C175" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D175" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="7"/>
-      <c r="B175" s="1" t="s">
+    <row r="176" spans="1:4">
+      <c r="A176" s="9"/>
+      <c r="B176" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C176" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="7"/>
-      <c r="B176" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="7"/>
-      <c r="B177" s="7" t="s">
+      <c r="A177" s="9"/>
+      <c r="B177" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="9"/>
+      <c r="B178" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C178" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D178" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="7"/>
-      <c r="B178" s="7"/>
-      <c r="C178" s="2" t="s">
+    <row r="179" spans="1:4">
+      <c r="A179" s="9"/>
+      <c r="B179" s="9"/>
+      <c r="C179" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D179" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="7"/>
-      <c r="B179" s="7"/>
-      <c r="C179" s="2" t="s">
+    <row r="180" spans="1:4">
+      <c r="A180" s="9"/>
+      <c r="B180" s="9"/>
+      <c r="C180" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D180" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="7"/>
-      <c r="B180" s="7"/>
-      <c r="C180" s="2" t="s">
+    <row r="181" spans="1:4">
+      <c r="A181" s="9"/>
+      <c r="B181" s="9"/>
+      <c r="C181" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D181" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="7"/>
-      <c r="B181" s="1" t="s">
+    <row r="182" spans="1:4">
+      <c r="A182" s="9"/>
+      <c r="B182" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C182" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D182" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="7" t="s">
+    <row r="185" spans="1:4">
+      <c r="A185" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B185" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C185" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D185" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="7"/>
-      <c r="B185" s="7"/>
-      <c r="C185" s="2" t="s">
+    <row r="186" spans="1:4">
+      <c r="A186" s="9"/>
+      <c r="B186" s="9"/>
+      <c r="C186" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="D186" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="8"/>
-      <c r="B186" s="1" t="s">
+    <row r="187" spans="1:4">
+      <c r="A187" s="10"/>
+      <c r="B187" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="8"/>
-      <c r="B187" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>295</v>
@@ -5039,9 +5059,9 @@
       </c>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="8"/>
+      <c r="A188" s="10"/>
       <c r="B188" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>295</v>
@@ -5051,9 +5071,9 @@
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="8"/>
+      <c r="A189" s="10"/>
       <c r="B189" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>295</v>
@@ -5062,35 +5082,47 @@
         <v>296</v>
       </c>
     </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="10"/>
+      <c r="B190" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A185:A190"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B54:B62"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B161:B165"/>
+    <mergeCell ref="B166:B170"/>
+    <mergeCell ref="B171:B175"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="A161:A182"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="A2:A159"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="B144:B148"/>
     <mergeCell ref="B151:B154"/>
     <mergeCell ref="B85:B86"/>
     <mergeCell ref="B100:B104"/>
     <mergeCell ref="B109:B139"/>
     <mergeCell ref="B141:B142"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A184:A189"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B54:B62"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B160:B164"/>
-    <mergeCell ref="B165:B169"/>
-    <mergeCell ref="B170:B174"/>
-    <mergeCell ref="B177:B180"/>
-    <mergeCell ref="A160:A181"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="A2:A158"/>
-    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
